--- a/Datasets/DTCPS/DTCPS_pre-extract.xlsx
+++ b/Datasets/DTCPS/DTCPS_pre-extract.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W455"/>
+  <dimension ref="A1:X455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,11 @@
           <t>publisher</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>metadata_missing</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -623,6 +628,7 @@
           <t>Elsevier Ltd</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -694,6 +700,7 @@
           <t>Elsevier Ltd</t>
         </is>
       </c>
+      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -767,6 +774,7 @@
           <t>Elsevier BV</t>
         </is>
       </c>
+      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -838,6 +846,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -913,6 +922,7 @@
           <t>Elsevier Ltd</t>
         </is>
       </c>
+      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -984,6 +994,7 @@
           <t>Elsevier Ltd</t>
         </is>
       </c>
+      <c r="X7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1059,6 +1070,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1130,6 +1142,7 @@
           <t>Elsevier Ltd</t>
         </is>
       </c>
+      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1201,6 +1214,7 @@
           <t>Elsevier Ltd</t>
         </is>
       </c>
+      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1272,6 +1286,7 @@
           <t>Elsevier Ltd</t>
         </is>
       </c>
+      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1347,6 +1362,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1422,6 +1438,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1497,6 +1514,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1572,6 +1590,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1647,6 +1666,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1718,6 +1738,7 @@
           <t>Elsevier Ltd</t>
         </is>
       </c>
+      <c r="X17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1789,6 +1810,7 @@
           <t>Elsevier Ltd</t>
         </is>
       </c>
+      <c r="X18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1850,6 +1872,7 @@
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1921,6 +1944,7 @@
           <t>Elsevier Ltd</t>
         </is>
       </c>
+      <c r="X20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1992,6 +2016,7 @@
           <t>Elsevier Ltd</t>
         </is>
       </c>
+      <c r="X21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2067,6 +2092,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2142,6 +2168,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2213,6 +2240,7 @@
           <t>Elsevier Ltd</t>
         </is>
       </c>
+      <c r="X24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2284,6 +2312,7 @@
           <t>Elsevier Ltd</t>
         </is>
       </c>
+      <c r="X25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2351,6 +2380,7 @@
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2422,6 +2452,7 @@
           <t>Elsevier Ltd</t>
         </is>
       </c>
+      <c r="X27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2493,6 +2524,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2568,6 +2600,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2643,6 +2676,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2714,6 +2748,7 @@
           <t>Elsevier Ltd</t>
         </is>
       </c>
+      <c r="X31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2789,6 +2824,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2864,6 +2900,7 @@
           <t>Elsevier Inc.</t>
         </is>
       </c>
+      <c r="X33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2939,6 +2976,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3014,6 +3052,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3089,6 +3128,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3164,6 +3204,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3239,6 +3280,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3310,6 +3352,7 @@
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3385,6 +3428,7 @@
           <t>MDPI AG</t>
         </is>
       </c>
+      <c r="X40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3456,6 +3500,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3531,6 +3576,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3606,6 +3652,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3677,6 +3724,7 @@
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3752,6 +3800,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3827,6 +3876,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3902,6 +3952,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3967,6 +4018,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -4038,6 +4090,7 @@
           <t>Elsevier Ltd</t>
         </is>
       </c>
+      <c r="X49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -4109,6 +4162,7 @@
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -4184,6 +4238,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -4259,6 +4314,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -4334,6 +4390,7 @@
           <t>Elsevier Ltd</t>
         </is>
       </c>
+      <c r="X53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -4409,6 +4466,7 @@
           <t>Springer Science and Business Media B.V.</t>
         </is>
       </c>
+      <c r="X54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -4480,6 +4538,7 @@
           <t>Academic Press</t>
         </is>
       </c>
+      <c r="X55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -4555,6 +4614,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -4630,6 +4690,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -4705,6 +4766,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -4780,6 +4842,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -4855,6 +4918,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -4926,6 +4990,7 @@
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -5001,6 +5066,7 @@
           <t>Elsevier BV</t>
         </is>
       </c>
+      <c r="X62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -5076,6 +5142,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -5151,6 +5218,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -5226,6 +5294,7 @@
           <t>Springer</t>
         </is>
       </c>
+      <c r="X65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -5301,6 +5370,7 @@
           <t>Springer Science and Business Media Deutschland GmbH</t>
         </is>
       </c>
+      <c r="X66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -5376,6 +5446,7 @@
           <t>Springer</t>
         </is>
       </c>
+      <c r="X67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -5451,6 +5522,7 @@
           <t>Springer Science and Business Media Deutschland GmbH</t>
         </is>
       </c>
+      <c r="X68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -5522,6 +5594,7 @@
           <t>Springer</t>
         </is>
       </c>
+      <c r="X69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -5597,6 +5670,7 @@
           <t>MDPI AG</t>
         </is>
       </c>
+      <c r="X70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -5668,6 +5742,7 @@
           <t>MDPI AG</t>
         </is>
       </c>
+      <c r="X71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -5739,6 +5814,7 @@
           <t>MDPI AG</t>
         </is>
       </c>
+      <c r="X72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -5810,6 +5886,7 @@
           <t>MDPI AG</t>
         </is>
       </c>
+      <c r="X73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -5885,6 +5962,7 @@
           <t>SAGE Publications Ltd</t>
         </is>
       </c>
+      <c r="X74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -5956,6 +6034,7 @@
           <t>MDPI</t>
         </is>
       </c>
+      <c r="X75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -6025,6 +6104,7 @@
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -6096,6 +6176,7 @@
           <t>Institute of Physics Publishing</t>
         </is>
       </c>
+      <c r="X77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -6167,6 +6248,7 @@
           <t>MDPI AG</t>
         </is>
       </c>
+      <c r="X78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -6238,6 +6320,7 @@
           <t>MDPI Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
+      <c r="X79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -6313,6 +6396,7 @@
           <t>JVE International</t>
         </is>
       </c>
+      <c r="X80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -6384,6 +6468,7 @@
           <t>MDPI AG</t>
         </is>
       </c>
+      <c r="X81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -6439,6 +6524,7 @@
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -6488,6 +6574,7 @@
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -6559,6 +6646,7 @@
           <t>MDPI AG</t>
         </is>
       </c>
+      <c r="X84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -6630,6 +6718,7 @@
           <t>Hindawi Limited</t>
         </is>
       </c>
+      <c r="X85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -6703,6 +6792,7 @@
           <t>MDPI AG</t>
         </is>
       </c>
+      <c r="X86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -6774,6 +6864,7 @@
           <t>Springer</t>
         </is>
       </c>
+      <c r="X87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -6845,6 +6936,7 @@
           <t>Hindawi Limited</t>
         </is>
       </c>
+      <c r="X88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -6916,6 +7008,7 @@
           <t>MDPI AG</t>
         </is>
       </c>
+      <c r="X89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -6987,6 +7080,7 @@
           <t>MDPI AG</t>
         </is>
       </c>
+      <c r="X90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -7058,6 +7152,7 @@
           <t>MDPI AG</t>
         </is>
       </c>
+      <c r="X91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -7133,6 +7228,7 @@
           <t>Springer Science and Business Media Deutschland GmbH</t>
         </is>
       </c>
+      <c r="X92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -7208,6 +7304,7 @@
           <t>Springer Science and Business Media B.V.</t>
         </is>
       </c>
+      <c r="X93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -7283,6 +7380,7 @@
           <t>Wit Press</t>
         </is>
       </c>
+      <c r="X94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -7358,6 +7456,7 @@
           <t>ITMO University</t>
         </is>
       </c>
+      <c r="X95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -7433,6 +7532,7 @@
           <t>Springer Science and Business Media Deutschland GmbH</t>
         </is>
       </c>
+      <c r="X96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -7508,6 +7608,7 @@
           <t>De Gruyter Open Ltd</t>
         </is>
       </c>
+      <c r="X97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -7579,6 +7680,7 @@
           <t>IOP Publishing Ltd</t>
         </is>
       </c>
+      <c r="X98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -7654,6 +7756,7 @@
           <t>Springer Science and Business Media Deutschland GmbH</t>
         </is>
       </c>
+      <c r="X99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -7729,6 +7832,7 @@
           <t>Springer</t>
         </is>
       </c>
+      <c r="X100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -7800,6 +7904,7 @@
           <t>IOP Publishing Ltd</t>
         </is>
       </c>
+      <c r="X101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -7875,6 +7980,7 @@
           <t>Budapest University of Technology and Economics</t>
         </is>
       </c>
+      <c r="X102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -7946,6 +8052,7 @@
           <t>Springer Science and Business Media Deutschland GmbH</t>
         </is>
       </c>
+      <c r="X103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -8021,6 +8128,7 @@
           <t>Springer Verlag</t>
         </is>
       </c>
+      <c r="X104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -8092,6 +8200,7 @@
           <t>IOP Publishing Ltd</t>
         </is>
       </c>
+      <c r="X105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -8167,6 +8276,7 @@
           <t>Springer Science and Business Media Deutschland GmbH</t>
         </is>
       </c>
+      <c r="X106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -8242,6 +8352,7 @@
           <t>Assoc. of Mechanical Eng. and Technicians of Slovenia</t>
         </is>
       </c>
+      <c r="X107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -8313,6 +8424,7 @@
           <t>Hindawi Limited</t>
         </is>
       </c>
+      <c r="X108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -8384,6 +8496,7 @@
           <t>IOP Publishing Ltd</t>
         </is>
       </c>
+      <c r="X109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -8455,6 +8568,7 @@
           <t>MDPI</t>
         </is>
       </c>
+      <c r="X110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -8530,6 +8644,7 @@
           <t>Springer International Publishing</t>
         </is>
       </c>
+      <c r="X111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -8601,6 +8716,7 @@
           <t>IOP Publishing Ltd</t>
         </is>
       </c>
+      <c r="X112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -8672,6 +8788,7 @@
           <t>Association for Computing Machinery (ACM)</t>
         </is>
       </c>
+      <c r="X113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -8747,6 +8864,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -8818,6 +8936,7 @@
           <t>IOP Publishing Ltd</t>
         </is>
       </c>
+      <c r="X115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -8893,6 +9012,7 @@
           <t>Springer International Publishing</t>
         </is>
       </c>
+      <c r="X116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -8968,6 +9088,7 @@
           <t>Springer Science and Business Media Deutschland GmbH</t>
         </is>
       </c>
+      <c r="X117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -9021,6 +9142,7 @@
       <c r="U118" t="inlineStr"/>
       <c r="V118" t="inlineStr"/>
       <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -9092,6 +9214,7 @@
           <t>Institute of Physics Publishing</t>
         </is>
       </c>
+      <c r="X119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -9163,6 +9286,7 @@
           <t>IOP Publishing Ltd</t>
         </is>
       </c>
+      <c r="X120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -9238,6 +9362,7 @@
           <t>Springer</t>
         </is>
       </c>
+      <c r="X121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -9309,6 +9434,7 @@
           <t>EDP Sciences</t>
         </is>
       </c>
+      <c r="X122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -9380,6 +9506,7 @@
           <t>IOP Publishing Ltd</t>
         </is>
       </c>
+      <c r="X123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -9455,6 +9582,7 @@
           <t>Springer Verlag</t>
         </is>
       </c>
+      <c r="X124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -9530,6 +9658,7 @@
           <t>Springer</t>
         </is>
       </c>
+      <c r="X125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -9605,6 +9734,7 @@
           <t>Springer Verlag</t>
         </is>
       </c>
+      <c r="X126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -9674,6 +9804,7 @@
           <t>SPIE-Intl Soc Optical Eng</t>
         </is>
       </c>
+      <c r="X127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -9745,6 +9876,7 @@
           <t>IOP Publishing Ltd</t>
         </is>
       </c>
+      <c r="X128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -9820,6 +9952,7 @@
           <t>MDPI AG</t>
         </is>
       </c>
+      <c r="X129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -9895,6 +10028,7 @@
           <t>MDPI AG</t>
         </is>
       </c>
+      <c r="X130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -9970,6 +10104,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -10025,6 +10160,7 @@
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr"/>
       <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -10100,6 +10236,7 @@
           <t>Association for Computing Machinery (ACM)</t>
         </is>
       </c>
+      <c r="X133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -10175,6 +10312,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -10250,6 +10388,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -10321,6 +10460,7 @@
           <t>Association for Computing Machinery (ACM)</t>
         </is>
       </c>
+      <c r="X136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -10392,6 +10532,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -10463,6 +10604,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -10534,6 +10676,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -10609,6 +10752,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -10662,6 +10806,7 @@
       <c r="U141" t="inlineStr"/>
       <c r="V141" t="inlineStr"/>
       <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -10737,6 +10882,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -10808,6 +10954,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -10879,6 +11026,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -10954,6 +11102,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -11017,6 +11166,7 @@
           <t>IEEE</t>
         </is>
       </c>
+      <c r="X146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -11070,6 +11220,7 @@
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr"/>
       <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -11145,6 +11296,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -11220,6 +11372,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -11279,6 +11432,7 @@
           <t>IEEE</t>
         </is>
       </c>
+      <c r="X150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -11354,6 +11508,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -11425,6 +11580,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -11500,6 +11656,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -11573,6 +11730,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -11646,6 +11804,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -11717,6 +11876,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -11792,6 +11952,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -11867,6 +12028,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -11942,6 +12104,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -12021,6 +12184,7 @@
           <t>ACM</t>
         </is>
       </c>
+      <c r="X160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -12090,6 +12254,7 @@
           <t>Association for Computing Machinery (ACM)</t>
         </is>
       </c>
+      <c r="X161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -12161,6 +12326,7 @@
           <t>Association for Computing Machinery (ACM)</t>
         </is>
       </c>
+      <c r="X162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -12236,6 +12402,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -12315,6 +12482,7 @@
           <t>ACM</t>
         </is>
       </c>
+      <c r="X164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -12386,6 +12554,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -12457,6 +12626,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -12530,6 +12700,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -12601,6 +12772,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -12672,6 +12844,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -12747,6 +12920,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -12818,6 +12992,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -12889,6 +13064,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -12964,6 +13140,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -13039,6 +13216,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -13092,6 +13270,7 @@
       <c r="U175" t="inlineStr"/>
       <c r="V175" t="inlineStr"/>
       <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -13167,6 +13346,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -13246,6 +13426,7 @@
           <t>ACM</t>
         </is>
       </c>
+      <c r="X177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -13317,6 +13498,7 @@
           <t>Association for Computing Machinery (ACM)</t>
         </is>
       </c>
+      <c r="X178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -13392,6 +13574,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -13463,6 +13646,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -13536,6 +13720,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -13611,6 +13796,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -13682,6 +13868,7 @@
           <t>Association for Computing Machinery (ACM)</t>
         </is>
       </c>
+      <c r="X183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -13757,6 +13944,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -13832,6 +14020,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -13907,6 +14096,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -13980,6 +14170,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -14055,6 +14246,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -14126,6 +14318,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -14197,6 +14390,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -14272,6 +14466,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -14343,6 +14538,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -14418,6 +14614,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -14493,6 +14690,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -14568,6 +14766,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -14643,6 +14842,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -14718,6 +14918,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -14789,6 +14990,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -14864,6 +15066,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -14939,6 +15142,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -15014,6 +15218,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -15083,6 +15288,7 @@
           <t>Association for Computing Machinery (ACM)</t>
         </is>
       </c>
+      <c r="X202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -15158,6 +15364,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -15233,6 +15440,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -15308,6 +15516,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -15383,6 +15592,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -15440,6 +15650,7 @@
         </is>
       </c>
       <c r="W207" t="inlineStr"/>
+      <c r="X207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -15493,6 +15704,7 @@
       <c r="U208" t="inlineStr"/>
       <c r="V208" t="inlineStr"/>
       <c r="W208" t="inlineStr"/>
+      <c r="X208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -15550,6 +15762,7 @@
         </is>
       </c>
       <c r="W209" t="inlineStr"/>
+      <c r="X209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -15605,6 +15818,7 @@
       <c r="U210" t="inlineStr"/>
       <c r="V210" t="inlineStr"/>
       <c r="W210" t="inlineStr"/>
+      <c r="X210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -15676,6 +15890,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -15747,6 +15962,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -15818,6 +16034,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -15891,6 +16108,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -15966,6 +16184,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -16041,6 +16260,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -16114,6 +16334,7 @@
           <t>Association for Computing Machinery (ACM)</t>
         </is>
       </c>
+      <c r="X217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -16173,6 +16394,7 @@
           <t>EDA Consortium</t>
         </is>
       </c>
+      <c r="X218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -16244,6 +16466,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -16315,6 +16538,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -16386,6 +16610,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -16461,6 +16686,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -16532,6 +16758,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -16585,6 +16812,7 @@
       <c r="U224" t="inlineStr"/>
       <c r="V224" t="inlineStr"/>
       <c r="W224" t="inlineStr"/>
+      <c r="X224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -16638,6 +16866,7 @@
       <c r="U225" t="inlineStr"/>
       <c r="V225" t="inlineStr"/>
       <c r="W225" t="inlineStr"/>
+      <c r="X225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -16691,6 +16920,7 @@
       <c r="U226" t="inlineStr"/>
       <c r="V226" t="inlineStr"/>
       <c r="W226" t="inlineStr"/>
+      <c r="X226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -16744,6 +16974,7 @@
       <c r="U227" t="inlineStr"/>
       <c r="V227" t="inlineStr"/>
       <c r="W227" t="inlineStr"/>
+      <c r="X227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -16797,6 +17028,7 @@
       <c r="U228" t="inlineStr"/>
       <c r="V228" t="inlineStr"/>
       <c r="W228" t="inlineStr"/>
+      <c r="X228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -16850,6 +17082,7 @@
       <c r="U229" t="inlineStr"/>
       <c r="V229" t="inlineStr"/>
       <c r="W229" t="inlineStr"/>
+      <c r="X229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -16903,6 +17136,7 @@
       <c r="U230" t="inlineStr"/>
       <c r="V230" t="inlineStr"/>
       <c r="W230" t="inlineStr"/>
+      <c r="X230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -16956,6 +17190,7 @@
       <c r="U231" t="inlineStr"/>
       <c r="V231" t="inlineStr"/>
       <c r="W231" t="inlineStr"/>
+      <c r="X231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -17019,6 +17254,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -17072,6 +17308,7 @@
       <c r="U233" t="inlineStr"/>
       <c r="V233" t="inlineStr"/>
       <c r="W233" t="inlineStr"/>
+      <c r="X233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -17125,6 +17362,7 @@
       <c r="U234" t="inlineStr"/>
       <c r="V234" t="inlineStr"/>
       <c r="W234" t="inlineStr"/>
+      <c r="X234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -17200,6 +17438,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -17255,6 +17494,7 @@
       <c r="U236" t="inlineStr"/>
       <c r="V236" t="inlineStr"/>
       <c r="W236" t="inlineStr"/>
+      <c r="X236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -17326,6 +17566,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -17401,6 +17642,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -17476,6 +17718,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -17551,6 +17794,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -17622,6 +17866,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -17697,6 +17942,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -17768,6 +18014,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -17843,6 +18090,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -17914,6 +18162,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -17989,6 +18238,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -18060,6 +18310,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -18127,6 +18378,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -18200,6 +18452,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -18261,6 +18514,7 @@
         </is>
       </c>
       <c r="W250" t="inlineStr"/>
+      <c r="X250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -18332,6 +18586,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -18403,6 +18658,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -18474,6 +18730,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -18549,6 +18806,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -18620,6 +18878,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -18695,6 +18954,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -18770,6 +19030,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -18845,6 +19106,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -18920,6 +19182,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -18995,6 +19258,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -19066,6 +19330,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -19141,6 +19406,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -19212,6 +19478,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -19283,6 +19550,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -19358,6 +19626,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -19413,6 +19682,7 @@
       <c r="U266" t="inlineStr"/>
       <c r="V266" t="inlineStr"/>
       <c r="W266" t="inlineStr"/>
+      <c r="X266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -19488,6 +19758,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -19543,6 +19814,7 @@
       <c r="U268" t="inlineStr"/>
       <c r="V268" t="inlineStr"/>
       <c r="W268" t="inlineStr"/>
+      <c r="X268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -19614,6 +19886,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -19689,6 +19962,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -19744,6 +20018,7 @@
       <c r="U271" t="inlineStr"/>
       <c r="V271" t="inlineStr"/>
       <c r="W271" t="inlineStr"/>
+      <c r="X271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -19799,6 +20074,7 @@
       <c r="U272" t="inlineStr"/>
       <c r="V272" t="inlineStr"/>
       <c r="W272" t="inlineStr"/>
+      <c r="X272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -19854,6 +20130,7 @@
       <c r="U273" t="inlineStr"/>
       <c r="V273" t="inlineStr"/>
       <c r="W273" t="inlineStr"/>
+      <c r="X273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -19929,6 +20206,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -20004,6 +20282,7 @@
           <t>IEEE Computer Society</t>
         </is>
       </c>
+      <c r="X275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -20079,6 +20358,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -20150,6 +20430,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -20225,6 +20506,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -20300,6 +20582,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -20375,6 +20658,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -20450,6 +20734,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -20521,6 +20806,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -20596,6 +20882,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -20667,6 +20954,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -20742,6 +21030,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -20815,6 +21104,7 @@
           <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
         </is>
       </c>
+      <c r="X286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -20890,6 +21180,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -20965,6 +21256,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -21036,6 +21328,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -21095,6 +21388,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -21170,6 +21464,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -21223,6 +21518,7 @@
       <c r="U292" t="inlineStr"/>
       <c r="V292" t="inlineStr"/>
       <c r="W292" t="inlineStr"/>
+      <c r="X292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -21294,6 +21590,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -21347,6 +21644,7 @@
       <c r="U294" t="inlineStr"/>
       <c r="V294" t="inlineStr"/>
       <c r="W294" t="inlineStr"/>
+      <c r="X294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -21400,6 +21698,7 @@
       <c r="U295" t="inlineStr"/>
       <c r="V295" t="inlineStr"/>
       <c r="W295" t="inlineStr"/>
+      <c r="X295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -21453,6 +21752,7 @@
       <c r="U296" t="inlineStr"/>
       <c r="V296" t="inlineStr"/>
       <c r="W296" t="inlineStr"/>
+      <c r="X296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -21506,6 +21806,7 @@
       <c r="U297" t="inlineStr"/>
       <c r="V297" t="inlineStr"/>
       <c r="W297" t="inlineStr"/>
+      <c r="X297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -21559,6 +21860,7 @@
       <c r="U298" t="inlineStr"/>
       <c r="V298" t="inlineStr"/>
       <c r="W298" t="inlineStr"/>
+      <c r="X298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -21612,6 +21914,7 @@
       <c r="U299" t="inlineStr"/>
       <c r="V299" t="inlineStr"/>
       <c r="W299" t="inlineStr"/>
+      <c r="X299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -21687,6 +21990,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -21740,6 +22044,7 @@
       <c r="U301" t="inlineStr"/>
       <c r="V301" t="inlineStr"/>
       <c r="W301" t="inlineStr"/>
+      <c r="X301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -21793,6 +22098,7 @@
       <c r="U302" t="inlineStr"/>
       <c r="V302" t="inlineStr"/>
       <c r="W302" t="inlineStr"/>
+      <c r="X302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -21868,6 +22174,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -21943,6 +22250,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -22018,6 +22326,7 @@
           <t>ICST</t>
         </is>
       </c>
+      <c r="X305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -22091,6 +22400,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -22166,6 +22476,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -22241,6 +22552,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -22312,6 +22624,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -22387,6 +22700,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -22462,6 +22776,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -22533,6 +22848,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -22604,6 +22920,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -22661,6 +22978,7 @@
       <c r="U314" t="inlineStr"/>
       <c r="V314" t="inlineStr"/>
       <c r="W314" t="inlineStr"/>
+      <c r="X314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -22732,6 +23050,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -22785,6 +23104,7 @@
       <c r="U316" t="inlineStr"/>
       <c r="V316" t="inlineStr"/>
       <c r="W316" t="inlineStr"/>
+      <c r="X316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -22860,6 +23180,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -22913,6 +23234,7 @@
       <c r="U318" t="inlineStr"/>
       <c r="V318" t="inlineStr"/>
       <c r="W318" t="inlineStr"/>
+      <c r="X318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -22966,6 +23288,7 @@
       <c r="U319" t="inlineStr"/>
       <c r="V319" t="inlineStr"/>
       <c r="W319" t="inlineStr"/>
+      <c r="X319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -23021,6 +23344,7 @@
       <c r="U320" t="inlineStr"/>
       <c r="V320" t="inlineStr"/>
       <c r="W320" t="inlineStr"/>
+      <c r="X320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -23096,6 +23420,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -23167,6 +23492,7 @@
           <t>IEEE Computer Society</t>
         </is>
       </c>
+      <c r="X322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -23242,6 +23568,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -23317,6 +23644,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -23392,6 +23720,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -23463,6 +23792,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -23538,6 +23868,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -23613,6 +23944,7 @@
           <t>IEEE Computer Society</t>
         </is>
       </c>
+      <c r="X328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -23684,6 +24016,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -23759,6 +24092,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -23834,6 +24168,7 @@
           <t>Association for Computing Machinery Inc</t>
         </is>
       </c>
+      <c r="X331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -23905,6 +24240,7 @@
           <t>Association for Computing Machinery</t>
         </is>
       </c>
+      <c r="X332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -23976,6 +24312,7 @@
           <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
         </is>
       </c>
+      <c r="X333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -24051,6 +24388,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -24122,6 +24460,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -24197,6 +24536,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -24272,6 +24612,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -24347,6 +24688,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -24422,6 +24764,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -24497,6 +24840,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -24568,6 +24912,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -24643,6 +24988,7 @@
           <t>IEEE Computer Society</t>
         </is>
       </c>
+      <c r="X342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -24718,6 +25064,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -24773,6 +25120,7 @@
       <c r="U344" t="inlineStr"/>
       <c r="V344" t="inlineStr"/>
       <c r="W344" t="inlineStr"/>
+      <c r="X344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -24826,6 +25174,7 @@
       <c r="U345" t="inlineStr"/>
       <c r="V345" t="inlineStr"/>
       <c r="W345" t="inlineStr"/>
+      <c r="X345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -24879,6 +25228,7 @@
       <c r="U346" t="inlineStr"/>
       <c r="V346" t="inlineStr"/>
       <c r="W346" t="inlineStr"/>
+      <c r="X346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -24932,6 +25282,7 @@
       <c r="U347" t="inlineStr"/>
       <c r="V347" t="inlineStr"/>
       <c r="W347" t="inlineStr"/>
+      <c r="X347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -25007,6 +25358,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -25082,6 +25434,7 @@
           <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
         </is>
       </c>
+      <c r="X349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -25149,6 +25502,7 @@
       <c r="U350" t="inlineStr"/>
       <c r="V350" t="inlineStr"/>
       <c r="W350" t="inlineStr"/>
+      <c r="X350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -25224,6 +25578,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -25295,6 +25650,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -25366,6 +25722,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -25441,6 +25798,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -25512,6 +25870,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -25587,6 +25946,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -25660,6 +26020,7 @@
           <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
         </is>
       </c>
+      <c r="X357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -25735,6 +26096,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -25806,6 +26168,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -25881,6 +26244,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -25948,6 +26312,7 @@
       <c r="U361" t="inlineStr"/>
       <c r="V361" t="inlineStr"/>
       <c r="W361" t="inlineStr"/>
+      <c r="X361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -26023,6 +26388,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -26098,6 +26464,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -26169,6 +26536,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -26244,6 +26612,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -26315,6 +26684,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -26370,6 +26740,7 @@
       <c r="U367" t="inlineStr"/>
       <c r="V367" t="inlineStr"/>
       <c r="W367" t="inlineStr"/>
+      <c r="X367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -26423,6 +26794,7 @@
       <c r="U368" t="inlineStr"/>
       <c r="V368" t="inlineStr"/>
       <c r="W368" t="inlineStr"/>
+      <c r="X368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -26494,6 +26866,7 @@
           <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
         </is>
       </c>
+      <c r="X369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -26569,6 +26942,7 @@
           <t>IEEE Computer Society</t>
         </is>
       </c>
+      <c r="X370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -26622,6 +26996,7 @@
       <c r="U371" t="inlineStr"/>
       <c r="V371" t="inlineStr"/>
       <c r="W371" t="inlineStr"/>
+      <c r="X371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -26697,6 +27072,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -26768,6 +27144,7 @@
           <t>IEEE Computer Society</t>
         </is>
       </c>
+      <c r="X373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -26827,6 +27204,7 @@
           <t>IEEE</t>
         </is>
       </c>
+      <c r="X374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -26902,6 +27280,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -26973,6 +27352,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -27048,6 +27428,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -27123,6 +27504,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -27198,6 +27580,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -27273,6 +27656,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -27344,6 +27728,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -27397,6 +27782,7 @@
       <c r="U382" t="inlineStr"/>
       <c r="V382" t="inlineStr"/>
       <c r="W382" t="inlineStr"/>
+      <c r="X382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -27472,6 +27858,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -27543,6 +27930,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -27618,6 +28006,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -27673,6 +28062,7 @@
       <c r="U386" t="inlineStr"/>
       <c r="V386" t="inlineStr"/>
       <c r="W386" t="inlineStr"/>
+      <c r="X386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -27748,6 +28138,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -27823,6 +28214,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -27898,6 +28290,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -27963,6 +28356,7 @@
           <t>Institute of Electrical and Electronics Engineers</t>
         </is>
       </c>
+      <c r="X390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -28016,6 +28410,7 @@
       <c r="U391" t="inlineStr"/>
       <c r="V391" t="inlineStr"/>
       <c r="W391" t="inlineStr"/>
+      <c r="X391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -28091,6 +28486,7 @@
           <t>IEEE Computer Society</t>
         </is>
       </c>
+      <c r="X392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -28166,6 +28562,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -28221,6 +28618,7 @@
       <c r="U394" t="inlineStr"/>
       <c r="V394" t="inlineStr"/>
       <c r="W394" t="inlineStr"/>
+      <c r="X394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -28292,6 +28690,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -28347,6 +28746,7 @@
       <c r="U396" t="inlineStr"/>
       <c r="V396" t="inlineStr"/>
       <c r="W396" t="inlineStr"/>
+      <c r="X396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -28422,6 +28822,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -28497,6 +28898,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -28568,6 +28970,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -28643,6 +29046,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -28718,6 +29122,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -28773,6 +29178,7 @@
       <c r="U402" t="inlineStr"/>
       <c r="V402" t="inlineStr"/>
       <c r="W402" t="inlineStr"/>
+      <c r="X402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -28826,6 +29232,7 @@
       <c r="U403" t="inlineStr"/>
       <c r="V403" t="inlineStr"/>
       <c r="W403" t="inlineStr"/>
+      <c r="X403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -28901,6 +29308,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -28954,6 +29362,7 @@
       <c r="U405" t="inlineStr"/>
       <c r="V405" t="inlineStr"/>
       <c r="W405" t="inlineStr"/>
+      <c r="X405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -29007,6 +29416,7 @@
       <c r="U406" t="inlineStr"/>
       <c r="V406" t="inlineStr"/>
       <c r="W406" t="inlineStr"/>
+      <c r="X406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -29078,6 +29488,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -29153,6 +29564,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -29220,6 +29632,7 @@
       <c r="U409" t="inlineStr"/>
       <c r="V409" t="inlineStr"/>
       <c r="W409" t="inlineStr"/>
+      <c r="X409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -29295,6 +29708,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -29366,6 +29780,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -29437,6 +29852,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -29490,6 +29906,7 @@
       <c r="U413" t="inlineStr"/>
       <c r="V413" t="inlineStr"/>
       <c r="W413" t="inlineStr"/>
+      <c r="X413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -29543,6 +29960,7 @@
       <c r="U414" t="inlineStr"/>
       <c r="V414" t="inlineStr"/>
       <c r="W414" t="inlineStr"/>
+      <c r="X414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -29598,6 +30016,7 @@
       <c r="U415" t="inlineStr"/>
       <c r="V415" t="inlineStr"/>
       <c r="W415" t="inlineStr"/>
+      <c r="X415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -29673,6 +30092,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -29748,6 +30168,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -29819,6 +30240,7 @@
           <t>IEEE Computer Society</t>
         </is>
       </c>
+      <c r="X418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -29894,6 +30316,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -29947,6 +30370,7 @@
       <c r="U420" t="inlineStr"/>
       <c r="V420" t="inlineStr"/>
       <c r="W420" t="inlineStr"/>
+      <c r="X420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -30022,6 +30446,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -30097,6 +30522,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -30150,6 +30576,7 @@
       <c r="U423" t="inlineStr"/>
       <c r="V423" t="inlineStr"/>
       <c r="W423" t="inlineStr"/>
+      <c r="X423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -30225,6 +30652,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -30304,6 +30732,7 @@
           <t>IEEE</t>
         </is>
       </c>
+      <c r="X425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -30375,6 +30804,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -30450,6 +30880,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -30521,6 +30952,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -30596,6 +31028,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -30673,6 +31106,7 @@
           <t>IEEE</t>
         </is>
       </c>
+      <c r="X430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -30726,6 +31160,7 @@
       <c r="U431" t="inlineStr"/>
       <c r="V431" t="inlineStr"/>
       <c r="W431" t="inlineStr"/>
+      <c r="X431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -30797,6 +31232,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -30872,6 +31308,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -30943,6 +31380,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -31012,6 +31450,7 @@
         </is>
       </c>
       <c r="W435" t="inlineStr"/>
+      <c r="X435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -31081,6 +31520,7 @@
         </is>
       </c>
       <c r="W436" t="inlineStr"/>
+      <c r="X436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -31156,6 +31596,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -31209,6 +31650,7 @@
       <c r="U438" t="inlineStr"/>
       <c r="V438" t="inlineStr"/>
       <c r="W438" t="inlineStr"/>
+      <c r="X438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -31282,6 +31724,7 @@
           <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
         </is>
       </c>
+      <c r="X439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -31335,6 +31778,7 @@
       <c r="U440" t="inlineStr"/>
       <c r="V440" t="inlineStr"/>
       <c r="W440" t="inlineStr"/>
+      <c r="X440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -31406,6 +31850,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -31481,6 +31926,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -31556,6 +32002,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -31611,6 +32058,7 @@
       <c r="U444" t="inlineStr"/>
       <c r="V444" t="inlineStr"/>
       <c r="W444" t="inlineStr"/>
+      <c r="X444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -31686,6 +32134,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -31761,6 +32210,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -31836,6 +32286,7 @@
           <t>IEEE</t>
         </is>
       </c>
+      <c r="X447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -31911,6 +32362,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -31986,6 +32438,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -32039,6 +32492,7 @@
       <c r="U450" t="inlineStr"/>
       <c r="V450" t="inlineStr"/>
       <c r="W450" t="inlineStr"/>
+      <c r="X450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -32092,6 +32546,7 @@
       <c r="U451" t="inlineStr"/>
       <c r="V451" t="inlineStr"/>
       <c r="W451" t="inlineStr"/>
+      <c r="X451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -32163,6 +32618,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -32218,6 +32674,7 @@
       <c r="U453" t="inlineStr"/>
       <c r="V453" t="inlineStr"/>
       <c r="W453" t="inlineStr"/>
+      <c r="X453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -32293,6 +32750,7 @@
           <t>Institute of Electrical and Electronics Engineers Inc.</t>
         </is>
       </c>
+      <c r="X454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -32364,6 +32822,7 @@
           <t>Elsevier B.V.</t>
         </is>
       </c>
+      <c r="X455" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Datasets/DTCPS/DTCPS_pre-extract.xlsx
+++ b/Datasets/DTCPS/DTCPS_pre-extract.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10.1016/j.compositesa.2018.08.024</t>
+          <t>https://doi.org/10.1016/j.compositesa.2018.08.024</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -643,7 +643,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10.1016/j.agsy.2020.103046</t>
+          <t>https://doi.org/10.1016/j.agsy.2020.103046</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -699,7 +699,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>10.1016/j.digbus.2021.100009</t>
+          <t>https://doi.org/10.1016/j.digbus.2021.100009</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -757,7 +757,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10.1016/j.measurement.2020.108666</t>
+          <t>https://doi.org/10.1016/j.measurement.2020.108666</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -813,7 +813,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10.1016/j.cie.2019.01.025</t>
+          <t>https://doi.org/10.1016/j.cie.2019.01.025</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -873,7 +873,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10.1016/j.jclepro.2021.127278</t>
+          <t>https://doi.org/10.1016/j.jclepro.2021.127278</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -929,7 +929,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10.1016/j.jmsy.2020.04.013</t>
+          <t>https://doi.org/10.1016/j.jmsy.2020.04.013</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -989,7 +989,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10.1016/j.est.2020.101557</t>
+          <t>https://doi.org/10.1016/j.est.2020.101557</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10.1016/j.rcim.2019.101917</t>
+          <t>https://doi.org/10.1016/j.rcim.2019.101917</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10.1016/j.rcim.2019.101895</t>
+          <t>https://doi.org/10.1016/j.rcim.2019.101895</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10.1016/j.jmsy.2021.05.004</t>
+          <t>https://doi.org/10.1016/j.jmsy.2021.05.004</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10.1016/j.jmsy.2020.04.012</t>
+          <t>https://doi.org/10.1016/j.jmsy.2020.04.012</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10.1016/j.jmsy.2020.07.013</t>
+          <t>https://doi.org/10.1016/j.jmsy.2020.07.013</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>10.1016/j.jmsy.2020.05.011</t>
+          <t>https://doi.org/10.1016/j.jmsy.2020.05.011</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10.1016/j.jmsy.2021.05.007</t>
+          <t>https://doi.org/10.1016/j.jmsy.2021.05.007</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10.1016/j.mechmachtheory.2021.104346</t>
+          <t>https://doi.org/10.1016/j.mechmachtheory.2021.104346</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>10.1016/j.rcim.2020.102042</t>
+          <t>https://doi.org/10.1016/j.rcim.2020.102042</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1565,7 +1565,7 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>10.17605/OSF.IO/QH3V7</t>
+          <t>https://doi.org/10.17605/OSF.IO/QH3V7</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>10.1016/j.fusengdes.2021.112517</t>
+          <t>https://doi.org/10.1016/j.fusengdes.2021.112517</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>10.1016/j.rcim.2019.101849</t>
+          <t>https://doi.org/10.1016/j.rcim.2019.101849</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>10.1016/j.jmsy.2020.06.012</t>
+          <t>https://doi.org/10.1016/j.jmsy.2020.06.012</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>10.1016/j.jmsy.2020.07.018</t>
+          <t>https://doi.org/10.1016/j.jmsy.2020.07.018</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10.1016/j.rcim.2020.101958</t>
+          <t>https://doi.org/10.1016/j.rcim.2020.101958</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>10.1016/j.rcim.2021.102230</t>
+          <t>https://doi.org/10.1016/j.rcim.2021.102230</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>10.1016/j.ijhydene.2021.10.072</t>
+          <t>https://doi.org/10.1016/j.ijhydene.2021.10.072</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>10.1016/j.cities.2020.103064</t>
+          <t>https://doi.org/10.1016/j.cities.2020.103064</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -2071,7 +2071,7 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>10.1016/j.ifacol.2018.08.389</t>
+          <t>https://doi.org/10.1016/j.ifacol.2018.08.389</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>10.1016/j.procir.2020.03.031</t>
+          <t>https://doi.org/10.1016/j.procir.2020.03.031</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>10.1016/j.procir.2021.05.020</t>
+          <t>https://doi.org/10.1016/j.procir.2021.05.020</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>10.1016/j.cie.2021.107137</t>
+          <t>https://doi.org/10.1016/j.cie.2021.107137</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>10.1016/j.procir.2020.04.091</t>
+          <t>https://doi.org/10.1016/j.procir.2020.04.091</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>10.1016/j.apm.2019.09.036</t>
+          <t>https://doi.org/10.1016/j.apm.2019.09.036</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>10.1016/j.simpat.2019.02.007</t>
+          <t>https://doi.org/10.1016/j.simpat.2019.02.007</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>10.1016/j.promfg.2018.04.006</t>
+          <t>https://doi.org/10.1016/j.promfg.2018.04.006</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>10.1016/j.ifacol.2020.12.2865</t>
+          <t>https://doi.org/10.1016/j.ifacol.2020.12.2865</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>10.1016/j.procir.2017.02.035</t>
+          <t>https://doi.org/10.1016/j.procir.2017.02.035</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>10.1016/j.procir.2020.03.069</t>
+          <t>https://doi.org/10.1016/j.procir.2020.03.069</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>10.1016/j.ifacol.2021.08.115</t>
+          <t>https://doi.org/10.1016/j.ifacol.2021.08.115</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>10.3390/app11052321</t>
+          <t>https://doi.org/10.3390/app11052321</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>10.1016/j.sysarc.2019.101691</t>
+          <t>https://doi.org/10.1016/j.sysarc.2019.101691</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>10.1016/j.procir.2019.04.227</t>
+          <t>https://doi.org/10.1016/j.procir.2019.04.227</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>10.1016/j.procir.2020.05.162</t>
+          <t>https://doi.org/10.1016/j.procir.2020.05.162</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>10.1016/j.ifacol.2021.08.157</t>
+          <t>https://doi.org/10.1016/j.ifacol.2021.08.157</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>10.1016/j.trpro.2020.10.014</t>
+          <t>https://doi.org/10.1016/j.trpro.2020.10.014</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>10.1016/j.procir.2021.01.040</t>
+          <t>https://doi.org/10.1016/j.procir.2021.01.040</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>10.1016/j.jmsy.2020.05.007</t>
+          <t>https://doi.org/10.1016/j.jmsy.2020.05.007</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>10.23729/7e299722-c246-4695-990f-dbe5a7839ad2</t>
+          <t>https://doi.org/10.23729/7e299722-c246-4695-990f-dbe5a7839ad2</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>10.1016/j.fusengdes.2020.111592</t>
+          <t>https://doi.org/10.1016/j.fusengdes.2020.111592</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>10.1016/j.ifacol.2021.08.158</t>
+          <t>https://doi.org/10.1016/j.ifacol.2021.08.158</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>10.1016/j.promfg.2018.10.047</t>
+          <t>https://doi.org/10.1016/j.promfg.2018.10.047</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>10.1016/j.procir.2020.02.173</t>
+          <t>https://doi.org/10.1016/j.procir.2020.02.173</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>10.1016/j.mfglet.2018.02.006</t>
+          <t>https://doi.org/10.1016/j.mfglet.2018.02.006</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>10.1007/s10518-021-01167-0</t>
+          <t>https://doi.org/10.1007/s10518-021-01167-0</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>10.1016/j.ymssp.2021.107614</t>
+          <t>https://doi.org/10.1016/j.ymssp.2021.107614</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>10.1016/j.procir.2021.05.071</t>
+          <t>https://doi.org/10.1016/j.procir.2021.05.071</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>10.1016/j.procir.2019.04.095</t>
+          <t>https://doi.org/10.1016/j.procir.2019.04.095</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>10.1016/j.procir.2018.03.246</t>
+          <t>https://doi.org/10.1016/j.procir.2018.03.246</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>10.1016/j.procir.2019.04.114</t>
+          <t>https://doi.org/10.1016/j.procir.2019.04.114</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>10.1016/j.procir.2019.03.141</t>
+          <t>https://doi.org/10.1016/j.procir.2019.03.141</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>10.1016/j.ifacol.2021.08.087</t>
+          <t>https://doi.org/10.1016/j.ifacol.2021.08.087</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>10.1016/j.promfg.2021.06.039</t>
+          <t>https://doi.org/10.1016/j.promfg.2021.06.039</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>10.1016/j.ifacol.2020.12.2503</t>
+          <t>https://doi.org/10.1016/j.ifacol.2020.12.2503</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>10.1016/j.ifacol.2019.10.020</t>
+          <t>https://doi.org/10.1016/j.ifacol.2019.10.020</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>10.1007/978-3-030-43890-6_27</t>
+          <t>https://doi.org/10.1007/978-3-030-43890-6_27</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>10.1007/978-3-030-80906-5_3</t>
+          <t>https://doi.org/10.1007/978-3-030-80906-5_3</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>10.1007/s10845-020-01724-5</t>
+          <t>https://doi.org/10.1007/s10845-020-01724-5</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>10.1007/978-3-030-69373-2_22</t>
+          <t>https://doi.org/10.1007/978-3-030-69373-2_22</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>10.1007/s40430-020-02461-9</t>
+          <t>https://doi.org/10.1007/s40430-020-02461-9</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -4565,7 +4565,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>10.3390/met10070914</t>
+          <t>https://doi.org/10.3390/met10070914</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -4625,7 +4625,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>10.3390/machines9030062</t>
+          <t>https://doi.org/10.3390/machines9030062</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>10.3390/s19204410</t>
+          <t>https://doi.org/10.3390/s19204410</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>10.3390/en12101909</t>
+          <t>https://doi.org/10.3390/en12101909</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>10.1177/09544054211002464</t>
+          <t>https://doi.org/10.1177/09544054211002464</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -4853,7 +4853,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>10.3390/s21196638</t>
+          <t>https://doi.org/10.3390/s21196638</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>10.3390/bdcc5040058</t>
+          <t>https://doi.org/10.3390/bdcc5040058</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -4967,7 +4967,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>10.1088/1742-6596/1452/1/012057</t>
+          <t>https://doi.org/10.1088/1742-6596/1452/1/012057</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>10.3390/app11083689</t>
+          <t>https://doi.org/10.3390/app11083689</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>10.3390/jmmp4010011</t>
+          <t>https://doi.org/10.3390/jmmp4010011</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>10.21595/vp.2021.21990</t>
+          <t>https://doi.org/10.21595/vp.2021.21990</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>10.3390/app8112239</t>
+          <t>https://doi.org/10.3390/app8112239</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -5333,7 +5333,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>10.3390/app11146399</t>
+          <t>https://doi.org/10.3390/app11146399</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>10.1155/2019/2875236</t>
+          <t>https://doi.org/10.1155/2019/2875236</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>10.3390/s21051842</t>
+          <t>https://doi.org/10.3390/s21051842</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -5503,7 +5503,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>10.1007/s10845-021-01824-w</t>
+          <t>https://doi.org/10.1007/s10845-021-01824-w</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>10.1155/2020/8865107</t>
+          <t>https://doi.org/10.1155/2020/8865107</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>10.3390/JMMP4030092</t>
+          <t>https://doi.org/10.3390/JMMP4030092</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>10.3390/s19173781</t>
+          <t>https://doi.org/10.3390/s19173781</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>10.3390/pr9081362</t>
+          <t>https://doi.org/10.3390/pr9081362</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -5783,7 +5783,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>10.1007/978-3-030-61725-7_7</t>
+          <t>https://doi.org/10.1007/978-3-030-61725-7_7</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -5843,7 +5843,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>10.1007/978-3-030-44783-0_45</t>
+          <t>https://doi.org/10.1007/978-3-030-44783-0_45</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -5903,7 +5903,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>10.2495/CMEM-V9-N3-213-225</t>
+          <t>https://doi.org/10.2495/CMEM-V9-N3-213-225</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -5963,7 +5963,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>10.17586/2226-1494-2021-21-3-386-393</t>
+          <t>https://doi.org/10.17586/2226-1494-2021-21-3-386-393</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>10.1007/978-3-030-85874-2_37</t>
+          <t>https://doi.org/10.1007/978-3-030-85874-2_37</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -6083,7 +6083,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>10.1515/eng-2020-0088</t>
+          <t>https://doi.org/10.1515/eng-2020-0088</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -6143,7 +6143,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>10.1088/1742-6596/1884/1/012006</t>
+          <t>https://doi.org/10.1088/1742-6596/1884/1/012006</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>10.1007/978-3-030-83906-2_12</t>
+          <t>https://doi.org/10.1007/978-3-030-83906-2_12</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>10.1007/978-3-030-42250-9_23</t>
+          <t>https://doi.org/10.1007/978-3-030-42250-9_23</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -6319,7 +6319,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>10.1088/1757-899X/1047/1/012010</t>
+          <t>https://doi.org/10.1088/1757-899X/1047/1/012010</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>10.3311/PPTR.15851</t>
+          <t>https://doi.org/10.3311/PPTR.15851</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>10.1007/s00158-021-03002-1</t>
+          <t>https://doi.org/10.1007/s00158-021-03002-1</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -6491,7 +6491,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>10.1007/978-3-030-23541-3_1</t>
+          <t>https://doi.org/10.1007/978-3-030-23541-3_1</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>10.1088/1742-6596/1618/6/062043</t>
+          <t>https://doi.org/10.1088/1742-6596/1618/6/062043</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>10.1007/978-3-030-63319-6_80</t>
+          <t>https://doi.org/10.1007/978-3-030-63319-6_80</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>10.5545/sv-jme.2019.6331</t>
+          <t>https://doi.org/10.5545/sv-jme.2019.6331</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -6727,7 +6727,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>10.1155/2021/1174762</t>
+          <t>https://doi.org/10.1155/2021/1174762</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>10.1088/1742-6596/1983/1/012106</t>
+          <t>https://doi.org/10.1088/1742-6596/1983/1/012106</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -6839,7 +6839,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>10.3390/su12031088</t>
+          <t>https://doi.org/10.3390/su12031088</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -6895,7 +6895,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>10.1007/978-3-319-32156-1_5</t>
+          <t>https://doi.org/10.1007/978-3-319-32156-1_5</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -6955,7 +6955,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>10.1088/1742-6596/1894/1/012031</t>
+          <t>https://doi.org/10.1088/1742-6596/1894/1/012031</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -7007,7 +7007,7 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>10.1145/3472749.3474761</t>
+          <t>https://doi.org/10.1145/3472749.3474761</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -7067,7 +7067,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>10.1145/3461778.3462030</t>
+          <t>https://doi.org/10.1145/3461778.3462030</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -7127,7 +7127,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>10.1088/1742-6596/1654/1/012071</t>
+          <t>https://doi.org/10.1088/1742-6596/1654/1/012071</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>10.1007/978-3-319-38756-7_4</t>
+          <t>https://doi.org/10.1007/978-3-319-38756-7_4</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>10.1007/978-3-030-85902-2_65</t>
+          <t>https://doi.org/10.1007/978-3-030-85902-2_65</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -7345,7 +7345,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>10.1088/1742-6596/1399/4/044032</t>
+          <t>https://doi.org/10.1088/1742-6596/1399/4/044032</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>10.1088/1757-899X/656/1/012057</t>
+          <t>https://doi.org/10.1088/1757-899X/656/1/012057</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>10.1007/978-3-030-57993-7_71</t>
+          <t>https://doi.org/10.1007/978-3-030-57993-7_71</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -7517,7 +7517,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>10.1051/e3sconf/202020902029</t>
+          <t>https://doi.org/10.1051/e3sconf/202020902029</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>10.1088/1742-6596/1636/1/012028</t>
+          <t>https://doi.org/10.1088/1742-6596/1636/1/012028</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>10.1007/978-3-030-24289-3_57</t>
+          <t>https://doi.org/10.1007/978-3-030-24289-3_57</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -7689,7 +7689,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>10.1007/978-3-030-42250-9_25</t>
+          <t>https://doi.org/10.1007/978-3-030-42250-9_25</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>10.1007/s10257-018-0376-0</t>
+          <t>https://doi.org/10.1007/s10257-018-0376-0</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -7805,7 +7805,7 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>10.1117/12.2540662</t>
+          <t>https://doi.org/10.1117/12.2540662</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>10.1088/1757-899X/1024/1/012104</t>
+          <t>https://doi.org/10.1088/1757-899X/1024/1/012104</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>10.3390/app11052202</t>
+          <t>https://doi.org/10.3390/app11052202</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>10.3390/s20185332</t>
+          <t>https://doi.org/10.3390/s20185332</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -8039,7 +8039,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>10.1145/3106195.3106218</t>
+          <t>https://doi.org/10.1145/3106195.3106218</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -8143,7 +8143,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>10.1145/3478680</t>
+          <t>https://doi.org/10.1145/3478680</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>10.1145/3473856.3474034</t>
+          <t>https://doi.org/10.1145/3473856.3474034</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>10.1145/3473682.3480258</t>
+          <t>https://doi.org/10.1145/3473682.3480258</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -8319,7 +8319,7 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>10.1145/3469410.3469435</t>
+          <t>https://doi.org/10.1145/3469410.3469435</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -8379,7 +8379,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>10.1145/3131542.3140274</t>
+          <t>https://doi.org/10.1145/3131542.3140274</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>10.1145/3131542.3131552</t>
+          <t>https://doi.org/10.1145/3131542.3131552</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>10.1145/3131542.3140265</t>
+          <t>https://doi.org/10.1145/3131542.3140265</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -8547,7 +8547,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>10.1145/3464327.3464369</t>
+          <t>https://doi.org/10.1145/3464327.3464369</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -8649,7 +8649,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>10.1145/3106195.3106220</t>
+          <t>https://doi.org/10.1145/3106195.3106220</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>10.1145/3467963</t>
+          <t>https://doi.org/10.1145/3467963</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -8765,7 +8765,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>10.1145/3465481.3465766</t>
+          <t>https://doi.org/10.1145/3465481.3465766</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -8821,7 +8821,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>10.1145/3457388.3458857</t>
+          <t>https://doi.org/10.1145/3457388.3458857</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -8971,7 +8971,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>10.1109/SEsCPS.2019.00012</t>
+          <t>https://doi.org/10.1109/SEsCPS.2019.00012</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>10.1109/MODELS-C.2019.00069</t>
+          <t>https://doi.org/10.1109/MODELS-C.2019.00069</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -9135,7 +9135,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>10.1145/3442381.3449935</t>
+          <t>https://doi.org/10.1145/3442381.3449935</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -9195,7 +9195,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>10.1145/3447526.3472045</t>
+          <t>https://doi.org/10.1145/3447526.3472045</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -9251,7 +9251,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>10.1109/MODELS-C.2019.00029</t>
+          <t>https://doi.org/10.1109/MODELS-C.2019.00029</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>10.1109/ICSE-NIER.2019.00011</t>
+          <t>https://doi.org/10.1109/ICSE-NIER.2019.00011</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -9369,7 +9369,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>10.1145/3445969.3450422</t>
+          <t>https://doi.org/10.1145/3445969.3450422</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>10.1145/3433639</t>
+          <t>https://doi.org/10.1145/3433639</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -9483,7 +9483,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>10.1109/ICCPS.2018.00017</t>
+          <t>https://doi.org/10.1109/ICCPS.2018.00017</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>10.1145/3437959.3459254</t>
+          <t>https://doi.org/10.1145/3437959.3459254</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -9603,7 +9603,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>10.1109/CCGRID.2018.00005</t>
+          <t>https://doi.org/10.1109/CCGRID.2018.00005</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>10.1145/3484266.3487380</t>
+          <t>https://doi.org/10.1145/3484266.3487380</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -9723,7 +9723,7 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>10.1145/3475716.3484196</t>
+          <t>https://doi.org/10.1145/3475716.3484196</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -9777,7 +9777,7 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>10.1145/3474963.3474988</t>
+          <t>https://doi.org/10.1145/3474963.3474988</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>10.1145/3474718.3475718</t>
+          <t>https://doi.org/10.1145/3474718.3475718</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -9897,7 +9897,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>10.1145/3474717.3484270</t>
+          <t>https://doi.org/10.1145/3474717.3484270</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>10.1145/3419634</t>
+          <t>https://doi.org/10.1145/3419634</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -10017,7 +10017,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>10.1145/3415264.3425462</t>
+          <t>https://doi.org/10.1145/3415264.3425462</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -10073,7 +10073,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>10.1145/3423455.3430316</t>
+          <t>https://doi.org/10.1145/3423455.3430316</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -10131,7 +10131,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>10.1145/3388769.3407543</t>
+          <t>https://doi.org/10.1145/3388769.3407543</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -10187,7 +10187,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>10.1145/3411763.3451711</t>
+          <t>https://doi.org/10.1145/3411763.3451711</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -10243,7 +10243,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>10.1145/3473856.3473871</t>
+          <t>https://doi.org/10.1145/3473856.3473871</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -10303,7 +10303,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>10.1145/3411764.3445711</t>
+          <t>https://doi.org/10.1145/3411764.3445711</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -10359,7 +10359,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>10.1145/3411763.3441324</t>
+          <t>https://doi.org/10.1145/3411763.3441324</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -10415,7 +10415,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>10.1145/3410530.3414316</t>
+          <t>https://doi.org/10.1145/3410530.3414316</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -10475,7 +10475,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>10.1145/3408308.3427982</t>
+          <t>https://doi.org/10.1145/3408308.3427982</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -10577,7 +10577,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>10.1145/3472727.3472802</t>
+          <t>https://doi.org/10.1145/3472727.3472802</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -10637,7 +10637,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>10.1145/3472307.3484161</t>
+          <t>https://doi.org/10.1145/3472307.3484161</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -10697,7 +10697,7 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>10.1145/3472410.3472412</t>
+          <t>https://doi.org/10.1145/3472410.3472412</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -10757,7 +10757,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>10.1145/3469260.3469670</t>
+          <t>https://doi.org/10.1145/3469260.3469670</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -10817,7 +10817,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>10.1145/3466170</t>
+          <t>https://doi.org/10.1145/3466170</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>10.1145/3463274.3463275</t>
+          <t>https://doi.org/10.1145/3463274.3463275</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -10931,7 +10931,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>10.1145/3462203.3475925</t>
+          <t>https://doi.org/10.1145/3462203.3475925</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -10987,7 +10987,7 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>10.1145/3460268.3460278</t>
+          <t>https://doi.org/10.1145/3460268.3460278</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -11047,7 +11047,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>10.1145/3462203.3475919</t>
+          <t>https://doi.org/10.1145/3462203.3475919</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -11107,7 +11107,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>10.1145/3458305.3463374</t>
+          <t>https://doi.org/10.1145/3458305.3463374</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
@@ -11167,7 +11167,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>10.1145/3460112.3471973</t>
+          <t>https://doi.org/10.1145/3460112.3471973</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -11227,7 +11227,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>10.1145/3452369.3463817</t>
+          <t>https://doi.org/10.1145/3452369.3463817</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -11285,7 +11285,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>10.1145/3457388.3458614</t>
+          <t>https://doi.org/10.1145/3457388.3458614</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
@@ -11345,7 +11345,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>10.1145/3452853.3452889</t>
+          <t>https://doi.org/10.1145/3452853.3452889</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>10.1145/3450287</t>
+          <t>https://doi.org/10.1145/3450287</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -11457,7 +11457,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>10.1145/3450267.3450539</t>
+          <t>https://doi.org/10.1145/3450267.3450539</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
@@ -11517,7 +11517,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>10.1109/DS-RT50469.2020.9213699</t>
+          <t>https://doi.org/10.1109/DS-RT50469.2020.9213699</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -11573,7 +11573,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>10.1145/3447555.3466585</t>
+          <t>https://doi.org/10.1145/3447555.3466585</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>10.1145/3450267.3450533</t>
+          <t>https://doi.org/10.1145/3450267.3450533</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -11693,7 +11693,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>10.1145/3445969.3450429</t>
+          <t>https://doi.org/10.1145/3445969.3450429</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -11753,7 +11753,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>10.1145/3447555.3466584</t>
+          <t>https://doi.org/10.1145/3447555.3466584</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
@@ -11813,7 +11813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>10.1145/3447555.3464870</t>
+          <t>https://doi.org/10.1145/3447555.3464870</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
@@ -11873,7 +11873,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>10.1145/3444465.3444535</t>
+          <t>https://doi.org/10.1145/3444465.3444535</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>10.1145/3441000.3441043</t>
+          <t>https://doi.org/10.1145/3441000.3441043</t>
         </is>
       </c>
       <c r="J199" t="inlineStr"/>
@@ -11989,7 +11989,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>10.1145/3443467.3443788</t>
+          <t>https://doi.org/10.1145/3443467.3443788</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
@@ -12049,7 +12049,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>10.1145/3437120.3437338</t>
+          <t>https://doi.org/10.1145/3437120.3437338</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
@@ -12105,7 +12105,7 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>10.1145/3440722.3440917</t>
+          <t>https://doi.org/10.1145/3440722.3440917</t>
         </is>
       </c>
       <c r="J202" t="inlineStr"/>
@@ -12163,7 +12163,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>10.1145/3428757.3429110</t>
+          <t>https://doi.org/10.1145/3428757.3429110</t>
         </is>
       </c>
       <c r="J203" t="inlineStr"/>
@@ -12223,7 +12223,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>10.1145/3436286.3436427</t>
+          <t>https://doi.org/10.1145/3436286.3436427</t>
         </is>
       </c>
       <c r="J204" t="inlineStr"/>
@@ -12283,7 +12283,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>10.1145/3428690.3429177</t>
+          <t>https://doi.org/10.1145/3428690.3429177</t>
         </is>
       </c>
       <c r="J205" t="inlineStr"/>
@@ -12343,7 +12343,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>10.1145/3428502.3428588</t>
+          <t>https://doi.org/10.1145/3428502.3428588</t>
         </is>
       </c>
       <c r="J206" t="inlineStr"/>
@@ -12581,7 +12581,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>10.1145/3424616.3424694</t>
+          <t>https://doi.org/10.1145/3424616.3424694</t>
         </is>
       </c>
       <c r="J211" t="inlineStr"/>
@@ -12637,7 +12637,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>10.1145/3424771.3424804</t>
+          <t>https://doi.org/10.1145/3424771.3424804</t>
         </is>
       </c>
       <c r="J212" t="inlineStr"/>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>10.1145/3424978.3425033</t>
+          <t>https://doi.org/10.1145/3424978.3425033</t>
         </is>
       </c>
       <c r="J213" t="inlineStr"/>
@@ -12749,7 +12749,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>10.1145/3417990.3421446</t>
+          <t>https://doi.org/10.1145/3417990.3421446</t>
         </is>
       </c>
       <c r="J214" t="inlineStr"/>
@@ -12807,7 +12807,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>10.1145/3417990.3421438</t>
+          <t>https://doi.org/10.1145/3417990.3421438</t>
         </is>
       </c>
       <c r="J215" t="inlineStr"/>
@@ -12867,7 +12867,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>10.1145/3417990.3421439</t>
+          <t>https://doi.org/10.1145/3417990.3421439</t>
         </is>
       </c>
       <c r="J216" t="inlineStr"/>
@@ -12927,7 +12927,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>10.1145/3416090</t>
+          <t>https://doi.org/10.1145/3416090</t>
         </is>
       </c>
       <c r="J217" t="inlineStr"/>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>10.1145/3407023.3407039</t>
+          <t>https://doi.org/10.1145/3407023.3407039</t>
         </is>
       </c>
       <c r="J219" t="inlineStr"/>
@@ -13085,7 +13085,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>10.1145/3407023.3409228</t>
+          <t>https://doi.org/10.1145/3407023.3409228</t>
         </is>
       </c>
       <c r="J220" t="inlineStr"/>
@@ -13141,7 +13141,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>10.1145/3407023.3409186</t>
+          <t>https://doi.org/10.1145/3407023.3409186</t>
         </is>
       </c>
       <c r="J221" t="inlineStr"/>
@@ -13197,7 +13197,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>10.1145/3400934.3400984</t>
+          <t>https://doi.org/10.1145/3400934.3400984</t>
         </is>
       </c>
       <c r="J222" t="inlineStr"/>
@@ -13257,7 +13257,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>10.1145/3399715.3399743</t>
+          <t>https://doi.org/10.1145/3399715.3399743</t>
         </is>
       </c>
       <c r="J223" t="inlineStr"/>
@@ -13781,7 +13781,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>10.1145/3384941.3409587</t>
+          <t>https://doi.org/10.1145/3384941.3409587</t>
         </is>
       </c>
       <c r="J235" t="inlineStr"/>
@@ -13885,7 +13885,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>10.1145/3385956.3422088</t>
+          <t>https://doi.org/10.1145/3385956.3422088</t>
         </is>
       </c>
       <c r="J237" t="inlineStr"/>
@@ -13941,7 +13941,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>10.1145/3360322.3360847</t>
+          <t>https://doi.org/10.1145/3360322.3360847</t>
         </is>
       </c>
       <c r="J238" t="inlineStr"/>
@@ -14001,7 +14001,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>10.1145/3365438.3410952</t>
+          <t>https://doi.org/10.1145/3365438.3410952</t>
         </is>
       </c>
       <c r="J239" t="inlineStr"/>
@@ -14061,7 +14061,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>10.1145/3362068</t>
+          <t>https://doi.org/10.1145/3362068</t>
         </is>
       </c>
       <c r="J240" t="inlineStr"/>
@@ -14121,7 +14121,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>10.1145/3334480.3383004</t>
+          <t>https://doi.org/10.1145/3334480.3383004</t>
         </is>
       </c>
       <c r="J241" t="inlineStr"/>
@@ -14177,7 +14177,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>10.1145/3344948.3344973</t>
+          <t>https://doi.org/10.1145/3344948.3344973</t>
         </is>
       </c>
       <c r="J242" t="inlineStr"/>
@@ -14237,7 +14237,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>10.1145/3232078.3232098</t>
+          <t>https://doi.org/10.1145/3232078.3232098</t>
         </is>
       </c>
       <c r="J243" t="inlineStr"/>
@@ -14293,7 +14293,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>10.1145/3344948.3344953</t>
+          <t>https://doi.org/10.1145/3344948.3344953</t>
         </is>
       </c>
       <c r="J244" t="inlineStr"/>
@@ -14353,7 +14353,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>10.1145/3334480.3382814</t>
+          <t>https://doi.org/10.1145/3334480.3382814</t>
         </is>
       </c>
       <c r="J245" t="inlineStr"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>10.1145/3340764.3340780</t>
+          <t>https://doi.org/10.1145/3340764.3340780</t>
         </is>
       </c>
       <c r="J246" t="inlineStr"/>
@@ -14469,7 +14469,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>10.1145/3334480.3375203</t>
+          <t>https://doi.org/10.1145/3334480.3375203</t>
         </is>
       </c>
       <c r="J247" t="inlineStr"/>
@@ -14521,7 +14521,7 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>10.1145/3329714.3338129</t>
+          <t>https://doi.org/10.1145/3329714.3338129</t>
         </is>
       </c>
       <c r="J248" t="inlineStr"/>
@@ -14577,7 +14577,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>10.1145/3282894.3282910</t>
+          <t>https://doi.org/10.1145/3282894.3282910</t>
         </is>
       </c>
       <c r="J249" t="inlineStr"/>
@@ -14685,7 +14685,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>10.1145/3301273</t>
+          <t>https://doi.org/10.1145/3301273</t>
         </is>
       </c>
       <c r="J251" t="inlineStr"/>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>10.1145/3208806.3208810</t>
+          <t>https://doi.org/10.1145/3208806.3208810</t>
         </is>
       </c>
       <c r="J252" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>10.1145/3290605.3300749</t>
+          <t>https://doi.org/10.1145/3290605.3300749</t>
         </is>
       </c>
       <c r="J253" t="inlineStr"/>
@@ -14853,7 +14853,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>10.1145/3396851.3402369</t>
+          <t>https://doi.org/10.1145/3396851.3402369</t>
         </is>
       </c>
       <c r="J254" t="inlineStr"/>
@@ -14913,7 +14913,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>10.1145/3388529.3407313</t>
+          <t>https://doi.org/10.1145/3388529.3407313</t>
         </is>
       </c>
       <c r="J255" t="inlineStr"/>
@@ -14969,7 +14969,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>10.1145/3395352.3402619</t>
+          <t>https://doi.org/10.1145/3395352.3402619</t>
         </is>
       </c>
       <c r="J256" t="inlineStr"/>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>10.1145/3388176.3388209</t>
+          <t>https://doi.org/10.1145/3388176.3388209</t>
         </is>
       </c>
       <c r="J257" t="inlineStr"/>
@@ -15089,7 +15089,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>10.1145/3388218.3388222</t>
+          <t>https://doi.org/10.1145/3388218.3388222</t>
         </is>
       </c>
       <c r="J258" t="inlineStr"/>
@@ -15149,7 +15149,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>10.1145/3387940.3392199</t>
+          <t>https://doi.org/10.1145/3387940.3392199</t>
         </is>
       </c>
       <c r="J259" t="inlineStr"/>
@@ -15209,7 +15209,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>10.1145/3387940.3392195</t>
+          <t>https://doi.org/10.1145/3387940.3392195</t>
         </is>
       </c>
       <c r="J260" t="inlineStr"/>
@@ -15269,7 +15269,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>10.1145/3386164.3387294</t>
+          <t>https://doi.org/10.1145/3386164.3387294</t>
         </is>
       </c>
       <c r="J261" t="inlineStr"/>
@@ -15325,7 +15325,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>10.1145/3387939.3391607</t>
+          <t>https://doi.org/10.1145/3387939.3391607</t>
         </is>
       </c>
       <c r="J262" t="inlineStr"/>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>10.1145/3386164.3387296</t>
+          <t>https://doi.org/10.1145/3386164.3387296</t>
         </is>
       </c>
       <c r="J263" t="inlineStr"/>
@@ -15441,7 +15441,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>10.1145/3385032.3385041</t>
+          <t>https://doi.org/10.1145/3385032.3385041</t>
         </is>
       </c>
       <c r="J264" t="inlineStr"/>
@@ -15497,7 +15497,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>10.1145/3380688.3380695</t>
+          <t>https://doi.org/10.1145/3380688.3380695</t>
         </is>
       </c>
       <c r="J265" t="inlineStr"/>
@@ -15601,7 +15601,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>10.1145/3378679.3394535</t>
+          <t>https://doi.org/10.1145/3378679.3394535</t>
         </is>
       </c>
       <c r="J267" t="inlineStr"/>
@@ -15705,7 +15705,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>10.1145/3378184.3378227</t>
+          <t>https://doi.org/10.1145/3378184.3378227</t>
         </is>
       </c>
       <c r="J269" t="inlineStr"/>
@@ -15761,7 +15761,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>10.1145/3377170.3377261</t>
+          <t>https://doi.org/10.1145/3377170.3377261</t>
         </is>
       </c>
       <c r="J270" t="inlineStr"/>
@@ -15953,7 +15953,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>10.1145/1122445.1122456</t>
+          <t>https://doi.org/10.1145/1122445.1122456</t>
         </is>
       </c>
       <c r="J274" t="inlineStr"/>
@@ -16013,7 +16013,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>10.1145/3371382.3378326</t>
+          <t>https://doi.org/10.1145/3371382.3378326</t>
         </is>
       </c>
       <c r="J275" t="inlineStr"/>
@@ -16073,7 +16073,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>10.1145/3369114.3369141</t>
+          <t>https://doi.org/10.1145/3369114.3369141</t>
         </is>
       </c>
       <c r="J276" t="inlineStr"/>
@@ -16133,7 +16133,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>10.1145/3365871.3365873</t>
+          <t>https://doi.org/10.1145/3365871.3365873</t>
         </is>
       </c>
       <c r="J277" t="inlineStr"/>
@@ -16189,7 +16189,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>10.1145/3368089.3409743</t>
+          <t>https://doi.org/10.1145/3368089.3409743</t>
         </is>
       </c>
       <c r="J278" t="inlineStr"/>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>10.1145/3365438.3410941</t>
+          <t>https://doi.org/10.1145/3365438.3410941</t>
         </is>
       </c>
       <c r="J279" t="inlineStr"/>
@@ -16309,7 +16309,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>10.1145/3363459.3363526</t>
+          <t>https://doi.org/10.1145/3363459.3363526</t>
         </is>
       </c>
       <c r="J280" t="inlineStr"/>
@@ -16369,7 +16369,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>10.1145/3360774.3360809</t>
+          <t>https://doi.org/10.1145/3360774.3360809</t>
         </is>
       </c>
       <c r="J281" t="inlineStr"/>
@@ -16429,7 +16429,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>10.1145/3363384.3363405</t>
+          <t>https://doi.org/10.1145/3363384.3363405</t>
         </is>
       </c>
       <c r="J282" t="inlineStr"/>
@@ -16485,7 +16485,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>10.1145/3360774.3360790</t>
+          <t>https://doi.org/10.1145/3360774.3360790</t>
         </is>
       </c>
       <c r="J283" t="inlineStr"/>
@@ -16545,7 +16545,7 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>10.1145/3359997.3365727</t>
+          <t>https://doi.org/10.1145/3359997.3365727</t>
         </is>
       </c>
       <c r="J284" t="inlineStr"/>
@@ -16601,7 +16601,7 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>10.1145/3358695.3360899</t>
+          <t>https://doi.org/10.1145/3358695.3360899</t>
         </is>
       </c>
       <c r="J285" t="inlineStr"/>
@@ -16661,7 +16661,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>10.1109/jestie.2021.3093248</t>
+          <t>https://doi.org/10.1109/jestie.2021.3093248</t>
         </is>
       </c>
       <c r="J286" t="inlineStr"/>
@@ -16719,7 +16719,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>10.1145/3357236.3395523</t>
+          <t>https://doi.org/10.1145/3357236.3395523</t>
         </is>
       </c>
       <c r="J287" t="inlineStr"/>
@@ -16779,7 +16779,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>10.1145/3342197.3344539</t>
+          <t>https://doi.org/10.1145/3342197.3344539</t>
         </is>
       </c>
       <c r="J288" t="inlineStr"/>
@@ -16839,7 +16839,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>10.1145/3351917.3351979</t>
+          <t>https://doi.org/10.1145/3351917.3351979</t>
         </is>
       </c>
       <c r="J289" t="inlineStr"/>
@@ -16939,7 +16939,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>10.1145/3340764.3344889</t>
+          <t>https://doi.org/10.1145/3340764.3344889</t>
         </is>
       </c>
       <c r="J291" t="inlineStr"/>
@@ -17041,7 +17041,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>10.1145/3321335.3329685</t>
+          <t>https://doi.org/10.1145/3321335.3329685</t>
         </is>
       </c>
       <c r="J293" t="inlineStr"/>
@@ -17349,7 +17349,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>10.1145/3316782.3322751</t>
+          <t>https://doi.org/10.1145/3316782.3322751</t>
         </is>
       </c>
       <c r="J300" t="inlineStr"/>
@@ -17493,7 +17493,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>10.1145/3314493.3314504</t>
+          <t>https://doi.org/10.1145/3314493.3314504</t>
         </is>
       </c>
       <c r="J303" t="inlineStr"/>
@@ -17553,7 +17553,7 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>10.1145/3308560.3316510</t>
+          <t>https://doi.org/10.1145/3308560.3316510</t>
         </is>
       </c>
       <c r="J304" t="inlineStr"/>
@@ -17613,7 +17613,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>10.1145/3307363.3307370</t>
+          <t>https://doi.org/10.1145/3307363.3307370</t>
         </is>
       </c>
       <c r="J305" t="inlineStr"/>
@@ -17673,7 +17673,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>10.1145/3304113.3326119</t>
+          <t>https://doi.org/10.1145/3304113.3326119</t>
         </is>
       </c>
       <c r="J306" t="inlineStr"/>
@@ -17731,7 +17731,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>10.1145/3302505.3310085</t>
+          <t>https://doi.org/10.1145/3302505.3310085</t>
         </is>
       </c>
       <c r="J307" t="inlineStr"/>
@@ -17791,7 +17791,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>10.1145/3302509.3313317</t>
+          <t>https://doi.org/10.1145/3302509.3313317</t>
         </is>
       </c>
       <c r="J308" t="inlineStr"/>
@@ -17851,7 +17851,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>10.1145/3290605.3300448</t>
+          <t>https://doi.org/10.1145/3290605.3300448</t>
         </is>
       </c>
       <c r="J309" t="inlineStr"/>
@@ -17907,7 +17907,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>10.1145/3293881.3295784</t>
+          <t>https://doi.org/10.1145/3293881.3295784</t>
         </is>
       </c>
       <c r="J310" t="inlineStr"/>
@@ -17967,7 +17967,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>10.1145/3297662.3365793</t>
+          <t>https://doi.org/10.1145/3297662.3365793</t>
         </is>
       </c>
       <c r="J311" t="inlineStr"/>
@@ -18027,7 +18027,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>10.1145/3277593.3277908</t>
+          <t>https://doi.org/10.1145/3277593.3277908</t>
         </is>
       </c>
       <c r="J312" t="inlineStr"/>
@@ -18083,7 +18083,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>10.1145/3279963.3281658</t>
+          <t>https://doi.org/10.1145/3279963.3281658</t>
         </is>
       </c>
       <c r="J313" t="inlineStr"/>
@@ -18185,7 +18185,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>10.1145/3277593.3277608</t>
+          <t>https://doi.org/10.1145/3277593.3277608</t>
         </is>
       </c>
       <c r="J315" t="inlineStr"/>
@@ -18283,7 +18283,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>10.1145/3265639.3265652</t>
+          <t>https://doi.org/10.1145/3265639.3265652</t>
         </is>
       </c>
       <c r="J317" t="inlineStr"/>
@@ -18471,7 +18471,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>10.1145/3239092.3265957</t>
+          <t>https://doi.org/10.1145/3239092.3265957</t>
         </is>
       </c>
       <c r="J321" t="inlineStr"/>
@@ -18531,7 +18531,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>10.1145/3239235.3239242</t>
+          <t>https://doi.org/10.1145/3239235.3239242</t>
         </is>
       </c>
       <c r="J322" t="inlineStr"/>
@@ -18587,7 +18587,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>10.1145/3229607.3229613</t>
+          <t>https://doi.org/10.1145/3229607.3229613</t>
         </is>
       </c>
       <c r="J323" t="inlineStr"/>
@@ -18647,7 +18647,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>10.1145/3205977.3205995</t>
+          <t>https://doi.org/10.1145/3205977.3205995</t>
         </is>
       </c>
       <c r="J324" t="inlineStr"/>
@@ -18707,7 +18707,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>10.1145/3204949.3204952</t>
+          <t>https://doi.org/10.1145/3204949.3204952</t>
         </is>
       </c>
       <c r="J325" t="inlineStr"/>
@@ -18763,7 +18763,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>10.1145/3198458.3198464</t>
+          <t>https://doi.org/10.1145/3198458.3198464</t>
         </is>
       </c>
       <c r="J326" t="inlineStr"/>
@@ -18823,7 +18823,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>10.1109/TPEL.2020.3009600</t>
+          <t>https://doi.org/10.1109/TPEL.2020.3009600</t>
         </is>
       </c>
       <c r="J327" t="inlineStr"/>
@@ -18883,7 +18883,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>10.1145/3194133.3194159</t>
+          <t>https://doi.org/10.1145/3194133.3194159</t>
         </is>
       </c>
       <c r="J328" t="inlineStr"/>
@@ -18943,7 +18943,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>10.1145/3178248.3178256</t>
+          <t>https://doi.org/10.1145/3178248.3178256</t>
         </is>
       </c>
       <c r="J329" t="inlineStr"/>
@@ -18999,7 +18999,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>10.1145/3177457.3177497</t>
+          <t>https://doi.org/10.1145/3177457.3177497</t>
         </is>
       </c>
       <c r="J330" t="inlineStr"/>
@@ -19059,7 +19059,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>10.1145/3147213.3149234</t>
+          <t>https://doi.org/10.1145/3147213.3149234</t>
         </is>
       </c>
       <c r="J331" t="inlineStr"/>
@@ -19119,7 +19119,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>10.1145/3147704.3147723</t>
+          <t>https://doi.org/10.1145/3147704.3147723</t>
         </is>
       </c>
       <c r="J332" t="inlineStr"/>
@@ -19171,7 +19171,7 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>10.1109/lcn52139.2021.9524993</t>
+          <t>https://doi.org/10.1109/lcn52139.2021.9524993</t>
         </is>
       </c>
       <c r="J333" t="inlineStr"/>
@@ -19231,7 +19231,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2020.2974810</t>
+          <t>https://doi.org/10.1109/ACCESS.2020.2974810</t>
         </is>
       </c>
       <c r="J334" t="inlineStr"/>
@@ -19291,7 +19291,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>10.1109/TCYB.2021.3063285</t>
+          <t>https://doi.org/10.1109/TCYB.2021.3063285</t>
         </is>
       </c>
       <c r="J335" t="inlineStr"/>
@@ -19347,7 +19347,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>10.1109/IROS.2016.7759171</t>
+          <t>https://doi.org/10.1109/IROS.2016.7759171</t>
         </is>
       </c>
       <c r="J336" t="inlineStr"/>
@@ -19407,7 +19407,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>10.1109/IEEECONF49454.2021.9382657</t>
+          <t>https://doi.org/10.1109/IEEECONF49454.2021.9382657</t>
         </is>
       </c>
       <c r="J337" t="inlineStr"/>
@@ -19467,7 +19467,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>10.1109/AIAM48774.2019.00157</t>
+          <t>https://doi.org/10.1109/AIAM48774.2019.00157</t>
         </is>
       </c>
       <c r="J338" t="inlineStr"/>
@@ -19527,7 +19527,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>10.1109/RCAR52367.2021.9517579</t>
+          <t>https://doi.org/10.1109/RCAR52367.2021.9517579</t>
         </is>
       </c>
       <c r="J339" t="inlineStr"/>
@@ -19587,7 +19587,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>10.1109/ICCSS52145.2020.9336872</t>
+          <t>https://doi.org/10.1109/ICCSS52145.2020.9336872</t>
         </is>
       </c>
       <c r="J340" t="inlineStr"/>
@@ -19647,7 +19647,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>10.1109/ISCAS51556.2021.9401582</t>
+          <t>https://doi.org/10.1109/ISCAS51556.2021.9401582</t>
         </is>
       </c>
       <c r="J341" t="inlineStr"/>
@@ -19703,7 +19703,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>10.23919/CCC52363.2021.9550249</t>
+          <t>https://doi.org/10.23919/CCC52363.2021.9550249</t>
         </is>
       </c>
       <c r="J342" t="inlineStr"/>
@@ -19763,7 +19763,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>10.1109/VRW52623.2021.00258</t>
+          <t>https://doi.org/10.1109/VRW52623.2021.00258</t>
         </is>
       </c>
       <c r="J343" t="inlineStr"/>
@@ -19993,7 +19993,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>10.1109/IEEECONF35879.2020.9330217</t>
+          <t>https://doi.org/10.1109/IEEECONF35879.2020.9330217</t>
         </is>
       </c>
       <c r="J348" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>10.1109/jsyst.2020.3006739</t>
+          <t>https://doi.org/10.1109/jsyst.2020.3006739</t>
         </is>
       </c>
       <c r="J349" t="inlineStr"/>
@@ -20113,7 +20113,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>10.1109/EWDTS.2010.5742116</t>
+          <t>https://doi.org/10.1109/EWDTS.2010.5742116</t>
         </is>
       </c>
       <c r="J350" t="inlineStr"/>
@@ -20169,7 +20169,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2020.3026541</t>
+          <t>https://doi.org/10.1109/ACCESS.2020.3026541</t>
         </is>
       </c>
       <c r="J351" t="inlineStr"/>
@@ -20229,7 +20229,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>10.1109/IEEECONF38699.2020.9389437</t>
+          <t>https://doi.org/10.1109/IEEECONF38699.2020.9389437</t>
         </is>
       </c>
       <c r="J352" t="inlineStr"/>
@@ -20285,7 +20285,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>10.1109/MIC.2021.3063674</t>
+          <t>https://doi.org/10.1109/MIC.2021.3063674</t>
         </is>
       </c>
       <c r="J353" t="inlineStr"/>
@@ -20341,7 +20341,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>10.1109/JSEN.2020.3026416</t>
+          <t>https://doi.org/10.1109/JSEN.2020.3026416</t>
         </is>
       </c>
       <c r="J354" t="inlineStr"/>
@@ -20401,7 +20401,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>10.1109/TSMC.2020.3048821</t>
+          <t>https://doi.org/10.1109/TSMC.2020.3048821</t>
         </is>
       </c>
       <c r="J355" t="inlineStr"/>
@@ -20457,7 +20457,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>10.1109/TSG.2020.3000958</t>
+          <t>https://doi.org/10.1109/TSG.2020.3000958</t>
         </is>
       </c>
       <c r="J356" t="inlineStr"/>
@@ -20517,7 +20517,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>10.1109/access.2021.3117727</t>
+          <t>https://doi.org/10.1109/access.2021.3117727</t>
         </is>
       </c>
       <c r="J357" t="inlineStr"/>
@@ -20575,7 +20575,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>10.1109/ITEC51675.2021.9490110</t>
+          <t>https://doi.org/10.1109/ITEC51675.2021.9490110</t>
         </is>
       </c>
       <c r="J358" t="inlineStr"/>
@@ -20635,7 +20635,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>10.1109/ICHVE49031.2020.9279568</t>
+          <t>https://doi.org/10.1109/ICHVE49031.2020.9279568</t>
         </is>
       </c>
       <c r="J359" t="inlineStr"/>
@@ -20691,7 +20691,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>10.1109/ICCCBDA51879.2021.9442503</t>
+          <t>https://doi.org/10.1109/ICCCBDA51879.2021.9442503</t>
         </is>
       </c>
       <c r="J360" t="inlineStr"/>
@@ -20751,7 +20751,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>10.1109/autest.2004.1436931</t>
+          <t>https://doi.org/10.1109/autest.2004.1436931</t>
         </is>
       </c>
       <c r="J361" t="inlineStr"/>
@@ -20807,7 +20807,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>10.1109/ICIT46573.2021.9453491</t>
+          <t>https://doi.org/10.1109/ICIT46573.2021.9453491</t>
         </is>
       </c>
       <c r="J362" t="inlineStr"/>
@@ -20867,7 +20867,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>10.1109/ACPEE51499.2021.9437042</t>
+          <t>https://doi.org/10.1109/ACPEE51499.2021.9437042</t>
         </is>
       </c>
       <c r="J363" t="inlineStr"/>
@@ -20927,7 +20927,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>10.1109/NAPS50074.2021.9449646</t>
+          <t>https://doi.org/10.1109/NAPS50074.2021.9449646</t>
         </is>
       </c>
       <c r="J364" t="inlineStr"/>
@@ -20983,7 +20983,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2021.3073618</t>
+          <t>https://doi.org/10.1109/ACCESS.2021.3073618</t>
         </is>
       </c>
       <c r="J365" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>10.1109/JSYST.2021.3079168</t>
+          <t>https://doi.org/10.1109/JSYST.2021.3079168</t>
         </is>
       </c>
       <c r="J366" t="inlineStr"/>
@@ -21181,7 +21181,7 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>10.1109/itherm51669.2021.9503199</t>
+          <t>https://doi.org/10.1109/itherm51669.2021.9503199</t>
         </is>
       </c>
       <c r="J369" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>10.1109/IEEM45057.2020.9309953</t>
+          <t>https://doi.org/10.1109/IEEM45057.2020.9309953</t>
         </is>
       </c>
       <c r="J370" t="inlineStr"/>
@@ -21343,7 +21343,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>10.1109/MNET.011.1900587</t>
+          <t>https://doi.org/10.1109/MNET.011.1900587</t>
         </is>
       </c>
       <c r="J372" t="inlineStr"/>
@@ -21403,7 +21403,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>10.1109/TII.2021.3064364</t>
+          <t>https://doi.org/10.1109/TII.2021.3064364</t>
         </is>
       </c>
       <c r="J373" t="inlineStr"/>
@@ -21503,7 +21503,7 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>10.1109/MPEL.2021.3075803</t>
+          <t>https://doi.org/10.1109/MPEL.2021.3075803</t>
         </is>
       </c>
       <c r="J375" t="inlineStr"/>
@@ -21563,7 +21563,7 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>10.1109/ESTS49166.2021.9512347</t>
+          <t>https://doi.org/10.1109/ESTS49166.2021.9512347</t>
         </is>
       </c>
       <c r="J376" t="inlineStr"/>
@@ -21619,7 +21619,7 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2021.3061732</t>
+          <t>https://doi.org/10.1109/ACCESS.2021.3061732</t>
         </is>
       </c>
       <c r="J377" t="inlineStr"/>
@@ -21679,7 +21679,7 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>10.1109/ICII.2019.00062</t>
+          <t>https://doi.org/10.1109/ICII.2019.00062</t>
         </is>
       </c>
       <c r="J378" t="inlineStr"/>
@@ -21739,7 +21739,7 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2021.3100708</t>
+          <t>https://doi.org/10.1109/ACCESS.2021.3100708</t>
         </is>
       </c>
       <c r="J379" t="inlineStr"/>
@@ -21799,7 +21799,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>10.1109/WSC48552.2020.9384115</t>
+          <t>https://doi.org/10.1109/WSC48552.2020.9384115</t>
         </is>
       </c>
       <c r="J380" t="inlineStr"/>
@@ -21859,7 +21859,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>10.1109/PowerTech46648.2021.9494814</t>
+          <t>https://doi.org/10.1109/PowerTech46648.2021.9494814</t>
         </is>
       </c>
       <c r="J381" t="inlineStr"/>
@@ -21957,7 +21957,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>10.1109/SYSOSE.2018.8428748</t>
+          <t>https://doi.org/10.1109/SYSOSE.2018.8428748</t>
         </is>
       </c>
       <c r="J383" t="inlineStr"/>
@@ -22017,7 +22017,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>10.23919/SoftCOM50211.2020.9238162</t>
+          <t>https://doi.org/10.23919/SoftCOM50211.2020.9238162</t>
         </is>
       </c>
       <c r="J384" t="inlineStr"/>
@@ -22073,7 +22073,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>10.1109/MNET.011.2000398</t>
+          <t>https://doi.org/10.1109/MNET.011.2000398</t>
         </is>
       </c>
       <c r="J385" t="inlineStr"/>
@@ -22177,7 +22177,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>10.1109/PVSC45281.2020.9300804</t>
+          <t>https://doi.org/10.1109/PVSC45281.2020.9300804</t>
         </is>
       </c>
       <c r="J387" t="inlineStr"/>
@@ -22237,7 +22237,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>10.1109/ICSTCC50638.2020.9259636</t>
+          <t>https://doi.org/10.1109/ICSTCC50638.2020.9259636</t>
         </is>
       </c>
       <c r="J388" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>10.1109/DTPI52967.2021.9540078</t>
+          <t>https://doi.org/10.1109/DTPI52967.2021.9540078</t>
         </is>
       </c>
       <c r="J389" t="inlineStr"/>
@@ -22449,7 +22449,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>10.23919/CCC52363.2021.9549592</t>
+          <t>https://doi.org/10.23919/CCC52363.2021.9549592</t>
         </is>
       </c>
       <c r="J392" t="inlineStr"/>
@@ -22509,7 +22509,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>10.1109/GloSIC50886.2020.9267880</t>
+          <t>https://doi.org/10.1109/GloSIC50886.2020.9267880</t>
         </is>
       </c>
       <c r="J393" t="inlineStr"/>
@@ -22613,7 +22613,7 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>10.1109/SysCon47679.2020.9275877</t>
+          <t>https://doi.org/10.1109/SysCon47679.2020.9275877</t>
         </is>
       </c>
       <c r="J395" t="inlineStr"/>
@@ -22713,7 +22713,7 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>10.1109/SPEEDAM.2018.8445302</t>
+          <t>https://doi.org/10.1109/SPEEDAM.2018.8445302</t>
         </is>
       </c>
       <c r="J397" t="inlineStr"/>
@@ -22773,7 +22773,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>10.1109/JAS.2020.1003518</t>
+          <t>https://doi.org/10.1109/JAS.2020.1003518</t>
         </is>
       </c>
       <c r="J398" t="inlineStr"/>
@@ -22833,7 +22833,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>10.1109/GIOTS49054.2020.9119497</t>
+          <t>https://doi.org/10.1109/GIOTS49054.2020.9119497</t>
         </is>
       </c>
       <c r="J399" t="inlineStr"/>
@@ -22889,7 +22889,7 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>10.1109/DTPI52967.2021.9540196</t>
+          <t>https://doi.org/10.1109/DTPI52967.2021.9540196</t>
         </is>
       </c>
       <c r="J400" t="inlineStr"/>
@@ -22949,7 +22949,7 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>10.23919/DATE51398.2021.9474066</t>
+          <t>https://doi.org/10.23919/DATE51398.2021.9474066</t>
         </is>
       </c>
       <c r="J401" t="inlineStr"/>
@@ -23095,7 +23095,7 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>10.1109/TIM.2019.2959294</t>
+          <t>https://doi.org/10.1109/TIM.2019.2959294</t>
         </is>
       </c>
       <c r="J404" t="inlineStr"/>
@@ -23239,7 +23239,7 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>10.23919/EuCAP51087.2021.9411415</t>
+          <t>https://doi.org/10.23919/EuCAP51087.2021.9411415</t>
         </is>
       </c>
       <c r="J407" t="inlineStr"/>
@@ -23295,7 +23295,7 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>10.1109/TPEL.2020.2971775</t>
+          <t>https://doi.org/10.1109/TPEL.2020.2971775</t>
         </is>
       </c>
       <c r="J408" t="inlineStr"/>
@@ -23355,7 +23355,7 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>10.1109/MWSYM.2010.5518033</t>
+          <t>https://doi.org/10.1109/MWSYM.2010.5518033</t>
         </is>
       </c>
       <c r="J409" t="inlineStr"/>
@@ -23411,7 +23411,7 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>10.1109/APEC42165.2021.9487201</t>
+          <t>https://doi.org/10.1109/APEC42165.2021.9487201</t>
         </is>
       </c>
       <c r="J410" t="inlineStr"/>
@@ -23471,7 +23471,7 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>10.1109/GIOTS49054.2020.9119570</t>
+          <t>https://doi.org/10.1109/GIOTS49054.2020.9119570</t>
         </is>
       </c>
       <c r="J411" t="inlineStr"/>
@@ -23527,7 +23527,7 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>10.1109/MIC.2021.3060962</t>
+          <t>https://doi.org/10.1109/MIC.2021.3060962</t>
         </is>
       </c>
       <c r="J412" t="inlineStr"/>
@@ -23711,7 +23711,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>10.1109/SEAA.2019.00027</t>
+          <t>https://doi.org/10.1109/SEAA.2019.00027</t>
         </is>
       </c>
       <c r="J416" t="inlineStr"/>
@@ -23771,7 +23771,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>10.1109/RusAutoCon52004.2021.9537443</t>
+          <t>https://doi.org/10.1109/RusAutoCon52004.2021.9537443</t>
         </is>
       </c>
       <c r="J417" t="inlineStr"/>
@@ -23831,7 +23831,7 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>10.1109/AERO50100.2021.9438439</t>
+          <t>https://doi.org/10.1109/AERO50100.2021.9438439</t>
         </is>
       </c>
       <c r="J418" t="inlineStr"/>
@@ -23887,7 +23887,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>10.1109/RusAutoCon52004.2021.9537546</t>
+          <t>https://doi.org/10.1109/RusAutoCon52004.2021.9537546</t>
         </is>
       </c>
       <c r="J419" t="inlineStr"/>
@@ -23989,7 +23989,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>10.1109/DTPI52967.2021.9540210</t>
+          <t>https://doi.org/10.1109/DTPI52967.2021.9540210</t>
         </is>
       </c>
       <c r="J421" t="inlineStr"/>
@@ -24049,7 +24049,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>10.1109/ICST49551.2021.00031</t>
+          <t>https://doi.org/10.1109/ICST49551.2021.00031</t>
         </is>
       </c>
       <c r="J422" t="inlineStr"/>
@@ -24151,7 +24151,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>10.23919/DATE51398.2021.9474220</t>
+          <t>https://doi.org/10.23919/DATE51398.2021.9474220</t>
         </is>
       </c>
       <c r="J424" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>10.1109/IV48863.2021.9575499</t>
+          <t>https://doi.org/10.1109/IV48863.2021.9575499</t>
         </is>
       </c>
       <c r="J425" t="inlineStr"/>
@@ -24275,7 +24275,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>10.1109/DMC51747.2021.9529935</t>
+          <t>https://doi.org/10.1109/DMC51747.2021.9529935</t>
         </is>
       </c>
       <c r="J426" t="inlineStr"/>
@@ -24331,7 +24331,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>10.1109/INDUSCON51756.2021.9529839</t>
+          <t>https://doi.org/10.1109/INDUSCON51756.2021.9529839</t>
         </is>
       </c>
       <c r="J427" t="inlineStr"/>
@@ -24391,7 +24391,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>10.1109/ICEPDS47235.2020.9249078</t>
+          <t>https://doi.org/10.1109/ICEPDS47235.2020.9249078</t>
         </is>
       </c>
       <c r="J428" t="inlineStr"/>
@@ -24447,7 +24447,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>10.1109/TCSI.2010.2090569</t>
+          <t>https://doi.org/10.1109/TCSI.2010.2090569</t>
         </is>
       </c>
       <c r="J429" t="inlineStr"/>
@@ -24507,7 +24507,7 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>10.1109/EWDTS52692.2021.9581015</t>
+          <t>https://doi.org/10.1109/EWDTS52692.2021.9581015</t>
         </is>
       </c>
       <c r="J430" t="inlineStr"/>
@@ -24611,7 +24611,7 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>10.1109/AIEEE51419.2021.9435779</t>
+          <t>https://doi.org/10.1109/AIEEE51419.2021.9435779</t>
         </is>
       </c>
       <c r="J432" t="inlineStr"/>
@@ -24667,7 +24667,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>10.1109/ECCE.2015.7309798</t>
+          <t>https://doi.org/10.1109/ECCE.2015.7309798</t>
         </is>
       </c>
       <c r="J433" t="inlineStr"/>
@@ -24727,7 +24727,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>10.1109/MLSD49919.2020.9247749</t>
+          <t>https://doi.org/10.1109/MLSD49919.2020.9247749</t>
         </is>
       </c>
       <c r="J434" t="inlineStr"/>
@@ -24783,7 +24783,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>10.1109/JESTPE.2021.3125788</t>
+          <t>https://doi.org/10.1109/JESTPE.2021.3125788</t>
         </is>
       </c>
       <c r="J435" t="inlineStr"/>
@@ -24841,7 +24841,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>10.1109/JIOT.2021.3126207</t>
+          <t>https://doi.org/10.1109/JIOT.2021.3126207</t>
         </is>
       </c>
       <c r="J436" t="inlineStr"/>
@@ -24899,7 +24899,7 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2018.2890566</t>
+          <t>https://doi.org/10.1109/ACCESS.2018.2890566</t>
         </is>
       </c>
       <c r="J437" t="inlineStr"/>
@@ -25001,7 +25001,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>10.1109/tii.2021.3121287</t>
+          <t>https://doi.org/10.1109/tii.2021.3121287</t>
         </is>
       </c>
       <c r="J439" t="inlineStr"/>
@@ -25101,7 +25101,7 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>10.1109/JSYST.2021.3071231</t>
+          <t>https://doi.org/10.1109/JSYST.2021.3071231</t>
         </is>
       </c>
       <c r="J441" t="inlineStr"/>
@@ -25157,7 +25157,7 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2021.3100683</t>
+          <t>https://doi.org/10.1109/ACCESS.2021.3100683</t>
         </is>
       </c>
       <c r="J442" t="inlineStr"/>
@@ -25217,7 +25217,7 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>10.1109/QRS-C.2019.00103</t>
+          <t>https://doi.org/10.1109/QRS-C.2019.00103</t>
         </is>
       </c>
       <c r="J443" t="inlineStr"/>
@@ -25321,7 +25321,7 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>10.1109/CSCS52396.2021.00046</t>
+          <t>https://doi.org/10.1109/CSCS52396.2021.00046</t>
         </is>
       </c>
       <c r="J445" t="inlineStr"/>
@@ -25381,7 +25381,7 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>10.1109/ICCASIT50869.2020.9368801</t>
+          <t>https://doi.org/10.1109/ICCASIT50869.2020.9368801</t>
         </is>
       </c>
       <c r="J446" t="inlineStr"/>
@@ -25441,7 +25441,7 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>10.1109/iecon.1995.483353</t>
+          <t>https://doi.org/10.1109/iecon.1995.483353</t>
         </is>
       </c>
       <c r="J447" t="inlineStr"/>
@@ -25501,7 +25501,7 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>10.1109/ICPS48405.2020.9274787</t>
+          <t>https://doi.org/10.1109/ICPS48405.2020.9274787</t>
         </is>
       </c>
       <c r="J448" t="inlineStr"/>
@@ -25561,7 +25561,7 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>10.23919/DATE51398.2021.9474166</t>
+          <t>https://doi.org/10.23919/DATE51398.2021.9474166</t>
         </is>
       </c>
       <c r="J449" t="inlineStr"/>
@@ -25705,7 +25705,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>10.1109/ITSC45102.2020.9294748</t>
+          <t>https://doi.org/10.1109/ITSC45102.2020.9294748</t>
         </is>
       </c>
       <c r="J452" t="inlineStr"/>
@@ -25805,7 +25805,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>10.1109/ISSREW.2019.00072</t>
+          <t>https://doi.org/10.1109/ISSREW.2019.00072</t>
         </is>
       </c>
       <c r="J454" t="inlineStr"/>
@@ -25865,7 +25865,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>10.1016/j.autcon.2020.103277</t>
+          <t>https://doi.org/10.1016/j.autcon.2020.103277</t>
         </is>
       </c>
       <c r="J455" t="inlineStr"/>

--- a/Datasets/DTCPS/DTCPS_pre-extract.xlsx
+++ b/Datasets/DTCPS/DTCPS_pre-extract.xlsx
@@ -601,7 +601,11 @@
       <c r="R2" t="n">
         <v>2</v>
       </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Elsevier Ltd</t>
+        </is>
+      </c>
       <c r="T2" t="n">
         <v>2018</v>
       </c>
@@ -657,7 +661,11 @@
       <c r="R3" t="n">
         <v>2</v>
       </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Elsevier Ltd</t>
+        </is>
+      </c>
       <c r="T3" t="n">
         <v>2021</v>
       </c>
@@ -715,7 +723,11 @@
       <c r="R4" t="n">
         <v>2</v>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
       <c r="T4" t="n">
         <v>2021</v>
       </c>
@@ -771,7 +783,11 @@
       <c r="R5" t="n">
         <v>2</v>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T5" t="n">
         <v>2021</v>
       </c>
@@ -831,7 +847,11 @@
       <c r="R6" t="n">
         <v>2</v>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Elsevier Ltd</t>
+        </is>
+      </c>
       <c r="T6" t="n">
         <v>2019</v>
       </c>
@@ -887,7 +907,11 @@
       <c r="R7" t="n">
         <v>2</v>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Elsevier Ltd</t>
+        </is>
+      </c>
       <c r="T7" t="n">
         <v>2021</v>
       </c>
@@ -947,7 +971,11 @@
       <c r="R8" t="n">
         <v>2</v>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T8" t="n">
         <v>2021</v>
       </c>
@@ -1003,7 +1031,11 @@
       <c r="R9" t="n">
         <v>2</v>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Elsevier Ltd</t>
+        </is>
+      </c>
       <c r="T9" t="n">
         <v>2020</v>
       </c>
@@ -1059,7 +1091,11 @@
       <c r="R10" t="n">
         <v>2</v>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Elsevier Ltd</t>
+        </is>
+      </c>
       <c r="T10" t="n">
         <v>2020</v>
       </c>
@@ -1115,7 +1151,11 @@
       <c r="R11" t="n">
         <v>2</v>
       </c>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Elsevier Ltd</t>
+        </is>
+      </c>
       <c r="T11" t="n">
         <v>2020</v>
       </c>
@@ -1175,7 +1215,11 @@
       <c r="R12" t="n">
         <v>2</v>
       </c>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T12" t="n">
         <v>2021</v>
       </c>
@@ -1235,7 +1279,11 @@
       <c r="R13" t="n">
         <v>2</v>
       </c>
-      <c r="S13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T13" t="n">
         <v>2021</v>
       </c>
@@ -1295,7 +1343,11 @@
       <c r="R14" t="n">
         <v>2</v>
       </c>
-      <c r="S14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T14" t="n">
         <v>2021</v>
       </c>
@@ -1355,7 +1407,11 @@
       <c r="R15" t="n">
         <v>2</v>
       </c>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T15" t="n">
         <v>2021</v>
       </c>
@@ -1415,7 +1471,11 @@
       <c r="R16" t="n">
         <v>2</v>
       </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T16" t="n">
         <v>2021</v>
       </c>
@@ -1471,7 +1531,11 @@
       <c r="R17" t="n">
         <v>2</v>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Elsevier Ltd</t>
+        </is>
+      </c>
       <c r="T17" t="n">
         <v>2021</v>
       </c>
@@ -1527,7 +1591,11 @@
       <c r="R18" t="n">
         <v>2</v>
       </c>
-      <c r="S18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Elsevier Ltd</t>
+        </is>
+      </c>
       <c r="T18" t="n">
         <v>2021</v>
       </c>
@@ -1633,7 +1701,11 @@
       <c r="R20" t="n">
         <v>2</v>
       </c>
-      <c r="S20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Elsevier Ltd</t>
+        </is>
+      </c>
       <c r="T20" t="n">
         <v>2021</v>
       </c>
@@ -1689,7 +1761,11 @@
       <c r="R21" t="n">
         <v>2</v>
       </c>
-      <c r="S21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Elsevier Ltd</t>
+        </is>
+      </c>
       <c r="T21" t="n">
         <v>2020</v>
       </c>
@@ -1749,7 +1825,11 @@
       <c r="R22" t="n">
         <v>2</v>
       </c>
-      <c r="S22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T22" t="n">
         <v>2021</v>
       </c>
@@ -1809,7 +1889,11 @@
       <c r="R23" t="n">
         <v>2</v>
       </c>
-      <c r="S23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T23" t="n">
         <v>2021</v>
       </c>
@@ -1865,7 +1949,11 @@
       <c r="R24" t="n">
         <v>2</v>
       </c>
-      <c r="S24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Elsevier Ltd</t>
+        </is>
+      </c>
       <c r="T24" t="n">
         <v>2020</v>
       </c>
@@ -1921,7 +2009,11 @@
       <c r="R25" t="n">
         <v>2</v>
       </c>
-      <c r="S25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Elsevier Ltd</t>
+        </is>
+      </c>
       <c r="T25" t="n">
         <v>2022</v>
       </c>
@@ -2033,7 +2125,11 @@
       <c r="R27" t="n">
         <v>2</v>
       </c>
-      <c r="S27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Elsevier Ltd</t>
+        </is>
+      </c>
       <c r="T27" t="n">
         <v>2021</v>
       </c>
@@ -2089,7 +2185,11 @@
       <c r="R28" t="n">
         <v>2</v>
       </c>
-      <c r="S28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T28" t="n">
         <v>2018</v>
       </c>
@@ -2149,7 +2249,11 @@
       <c r="R29" t="n">
         <v>2</v>
       </c>
-      <c r="S29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T29" t="n">
         <v>2020</v>
       </c>
@@ -2209,7 +2313,11 @@
       <c r="R30" t="n">
         <v>2</v>
       </c>
-      <c r="S30" t="inlineStr"/>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T30" t="n">
         <v>2021</v>
       </c>
@@ -2265,7 +2373,11 @@
       <c r="R31" t="n">
         <v>2</v>
       </c>
-      <c r="S31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Elsevier Ltd</t>
+        </is>
+      </c>
       <c r="T31" t="n">
         <v>2021</v>
       </c>
@@ -2325,7 +2437,11 @@
       <c r="R32" t="n">
         <v>2</v>
       </c>
-      <c r="S32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T32" t="n">
         <v>2020</v>
       </c>
@@ -2385,7 +2501,11 @@
       <c r="R33" t="n">
         <v>2</v>
       </c>
-      <c r="S33" t="inlineStr"/>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Elsevier Inc.</t>
+        </is>
+      </c>
       <c r="T33" t="n">
         <v>2020</v>
       </c>
@@ -2445,7 +2565,11 @@
       <c r="R34" t="n">
         <v>2</v>
       </c>
-      <c r="S34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T34" t="n">
         <v>2019</v>
       </c>
@@ -2505,7 +2629,11 @@
       <c r="R35" t="n">
         <v>2</v>
       </c>
-      <c r="S35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T35" t="n">
         <v>2018</v>
       </c>
@@ -2565,7 +2693,11 @@
       <c r="R36" t="n">
         <v>2</v>
       </c>
-      <c r="S36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T36" t="n">
         <v>2020</v>
       </c>
@@ -2625,7 +2757,11 @@
       <c r="R37" t="n">
         <v>2</v>
       </c>
-      <c r="S37" t="inlineStr"/>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T37" t="n">
         <v>2017</v>
       </c>
@@ -2685,7 +2821,11 @@
       <c r="R38" t="n">
         <v>2</v>
       </c>
-      <c r="S38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T38" t="n">
         <v>2020</v>
       </c>
@@ -2805,7 +2945,11 @@
       <c r="R40" t="n">
         <v>2</v>
       </c>
-      <c r="S40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>MDPI AG</t>
+        </is>
+      </c>
       <c r="T40" t="n">
         <v>2021</v>
       </c>
@@ -2861,7 +3005,11 @@
       <c r="R41" t="n">
         <v>2</v>
       </c>
-      <c r="S41" t="inlineStr"/>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T41" t="n">
         <v>2020</v>
       </c>
@@ -2921,7 +3069,11 @@
       <c r="R42" t="n">
         <v>2</v>
       </c>
-      <c r="S42" t="inlineStr"/>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T42" t="n">
         <v>2019</v>
       </c>
@@ -2981,7 +3133,11 @@
       <c r="R43" t="n">
         <v>2</v>
       </c>
-      <c r="S43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T43" t="n">
         <v>2020</v>
       </c>
@@ -3101,7 +3257,11 @@
       <c r="R45" t="n">
         <v>2</v>
       </c>
-      <c r="S45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T45" t="n">
         <v>2020</v>
       </c>
@@ -3161,7 +3321,11 @@
       <c r="R46" t="n">
         <v>2</v>
       </c>
-      <c r="S46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T46" t="n">
         <v>2021</v>
       </c>
@@ -3221,7 +3385,11 @@
       <c r="R47" t="n">
         <v>2</v>
       </c>
-      <c r="S47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T47" t="n">
         <v>2020</v>
       </c>
@@ -3331,7 +3499,11 @@
       <c r="R49" t="n">
         <v>2</v>
       </c>
-      <c r="S49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Elsevier Ltd</t>
+        </is>
+      </c>
       <c r="T49" t="n">
         <v>2020</v>
       </c>
@@ -3451,7 +3623,11 @@
       <c r="R51" t="n">
         <v>2</v>
       </c>
-      <c r="S51" t="inlineStr"/>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T51" t="n">
         <v>2018</v>
       </c>
@@ -3511,7 +3687,11 @@
       <c r="R52" t="n">
         <v>2</v>
       </c>
-      <c r="S52" t="inlineStr"/>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T52" t="n">
         <v>2020</v>
       </c>
@@ -3571,7 +3751,11 @@
       <c r="R53" t="n">
         <v>2</v>
       </c>
-      <c r="S53" t="inlineStr"/>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Elsevier Ltd</t>
+        </is>
+      </c>
       <c r="T53" t="n">
         <v>2018</v>
       </c>
@@ -3631,7 +3815,11 @@
       <c r="R54" t="n">
         <v>2</v>
       </c>
-      <c r="S54" t="inlineStr"/>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Springer Science and Business Media B.V.</t>
+        </is>
+      </c>
       <c r="T54" t="n">
         <v>2021</v>
       </c>
@@ -3687,7 +3875,11 @@
       <c r="R55" t="n">
         <v>2</v>
       </c>
-      <c r="S55" t="inlineStr"/>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Academic Press</t>
+        </is>
+      </c>
       <c r="T55" t="n">
         <v>2021</v>
       </c>
@@ -3747,7 +3939,11 @@
       <c r="R56" t="n">
         <v>2</v>
       </c>
-      <c r="S56" t="inlineStr"/>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T56" t="n">
         <v>2021</v>
       </c>
@@ -3807,7 +4003,11 @@
       <c r="R57" t="n">
         <v>2</v>
       </c>
-      <c r="S57" t="inlineStr"/>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T57" t="n">
         <v>2019</v>
       </c>
@@ -3867,7 +4067,11 @@
       <c r="R58" t="n">
         <v>2</v>
       </c>
-      <c r="S58" t="inlineStr"/>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T58" t="n">
         <v>2018</v>
       </c>
@@ -3927,7 +4131,11 @@
       <c r="R59" t="n">
         <v>2</v>
       </c>
-      <c r="S59" t="inlineStr"/>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T59" t="n">
         <v>2019</v>
       </c>
@@ -3987,7 +4195,11 @@
       <c r="R60" t="n">
         <v>2</v>
       </c>
-      <c r="S60" t="inlineStr"/>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T60" t="n">
         <v>2019</v>
       </c>
@@ -4107,7 +4319,11 @@
       <c r="R62" t="n">
         <v>2</v>
       </c>
-      <c r="S62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
       <c r="T62" t="n">
         <v>2021</v>
       </c>
@@ -4167,7 +4383,11 @@
       <c r="R63" t="n">
         <v>2</v>
       </c>
-      <c r="S63" t="inlineStr"/>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T63" t="n">
         <v>2020</v>
       </c>
@@ -4227,7 +4447,11 @@
       <c r="R64" t="n">
         <v>2</v>
       </c>
-      <c r="S64" t="inlineStr"/>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T64" t="n">
         <v>2019</v>
       </c>
@@ -4287,7 +4511,11 @@
       <c r="R65" t="n">
         <v>2</v>
       </c>
-      <c r="S65" t="inlineStr"/>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Springer</t>
+        </is>
+      </c>
       <c r="T65" t="n">
         <v>2020</v>
       </c>
@@ -4347,7 +4575,11 @@
       <c r="R66" t="n">
         <v>2</v>
       </c>
-      <c r="S66" t="inlineStr"/>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Springer Science and Business Media Deutschland GmbH</t>
+        </is>
+      </c>
       <c r="T66" t="n">
         <v>2021</v>
       </c>
@@ -4407,7 +4639,11 @@
       <c r="R67" t="n">
         <v>2</v>
       </c>
-      <c r="S67" t="inlineStr"/>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Springer</t>
+        </is>
+      </c>
       <c r="T67" t="n">
         <v>2021</v>
       </c>
@@ -4467,7 +4703,11 @@
       <c r="R68" t="n">
         <v>2</v>
       </c>
-      <c r="S68" t="inlineStr"/>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Springer Science and Business Media Deutschland GmbH</t>
+        </is>
+      </c>
       <c r="T68" t="n">
         <v>2021</v>
       </c>
@@ -4523,7 +4763,11 @@
       <c r="R69" t="n">
         <v>2</v>
       </c>
-      <c r="S69" t="inlineStr"/>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Springer</t>
+        </is>
+      </c>
       <c r="T69" t="n">
         <v>2020</v>
       </c>
@@ -4583,7 +4827,11 @@
       <c r="R70" t="n">
         <v>2</v>
       </c>
-      <c r="S70" t="inlineStr"/>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>MDPI AG</t>
+        </is>
+      </c>
       <c r="T70" t="n">
         <v>2020</v>
       </c>
@@ -4639,7 +4887,11 @@
       <c r="R71" t="n">
         <v>2</v>
       </c>
-      <c r="S71" t="inlineStr"/>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>MDPI AG</t>
+        </is>
+      </c>
       <c r="T71" t="n">
         <v>2021</v>
       </c>
@@ -4695,7 +4947,11 @@
       <c r="R72" t="n">
         <v>2</v>
       </c>
-      <c r="S72" t="inlineStr"/>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>MDPI AG</t>
+        </is>
+      </c>
       <c r="T72" t="n">
         <v>2019</v>
       </c>
@@ -4751,7 +5007,11 @@
       <c r="R73" t="n">
         <v>2</v>
       </c>
-      <c r="S73" t="inlineStr"/>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>MDPI AG</t>
+        </is>
+      </c>
       <c r="T73" t="n">
         <v>2019</v>
       </c>
@@ -4811,7 +5071,11 @@
       <c r="R74" t="n">
         <v>2</v>
       </c>
-      <c r="S74" t="inlineStr"/>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>SAGE Publications Ltd</t>
+        </is>
+      </c>
       <c r="T74" t="n">
         <v>2021</v>
       </c>
@@ -4867,7 +5131,11 @@
       <c r="R75" t="n">
         <v>2</v>
       </c>
-      <c r="S75" t="inlineStr"/>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>MDPI</t>
+        </is>
+      </c>
       <c r="T75" t="n">
         <v>2021</v>
       </c>
@@ -4981,7 +5249,11 @@
       <c r="R77" t="n">
         <v>2</v>
       </c>
-      <c r="S77" t="inlineStr"/>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>Institute of Physics Publishing</t>
+        </is>
+      </c>
       <c r="T77" t="n">
         <v>2020</v>
       </c>
@@ -5037,7 +5309,11 @@
       <c r="R78" t="n">
         <v>2</v>
       </c>
-      <c r="S78" t="inlineStr"/>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>MDPI AG</t>
+        </is>
+      </c>
       <c r="T78" t="n">
         <v>2021</v>
       </c>
@@ -5093,7 +5369,11 @@
       <c r="R79" t="n">
         <v>2</v>
       </c>
-      <c r="S79" t="inlineStr"/>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>MDPI Multidisciplinary Digital Publishing Institute</t>
+        </is>
+      </c>
       <c r="T79" t="n">
         <v>2020</v>
       </c>
@@ -5153,7 +5433,11 @@
       <c r="R80" t="n">
         <v>2</v>
       </c>
-      <c r="S80" t="inlineStr"/>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>JVE International</t>
+        </is>
+      </c>
       <c r="T80" t="n">
         <v>2021</v>
       </c>
@@ -5209,7 +5493,11 @@
       <c r="R81" t="n">
         <v>2</v>
       </c>
-      <c r="S81" t="inlineStr"/>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>MDPI AG</t>
+        </is>
+      </c>
       <c r="T81" t="n">
         <v>2018</v>
       </c>
@@ -5347,7 +5635,11 @@
       <c r="R84" t="n">
         <v>2</v>
       </c>
-      <c r="S84" t="inlineStr"/>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>MDPI AG</t>
+        </is>
+      </c>
       <c r="T84" t="n">
         <v>2021</v>
       </c>
@@ -5403,7 +5695,11 @@
       <c r="R85" t="n">
         <v>2</v>
       </c>
-      <c r="S85" t="inlineStr"/>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>Hindawi Limited</t>
+        </is>
+      </c>
       <c r="T85" t="n">
         <v>2019</v>
       </c>
@@ -5461,7 +5757,11 @@
       <c r="R86" t="n">
         <v>2</v>
       </c>
-      <c r="S86" t="inlineStr"/>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>MDPI AG</t>
+        </is>
+      </c>
       <c r="T86" t="n">
         <v>2021</v>
       </c>
@@ -5517,7 +5817,11 @@
       <c r="R87" t="n">
         <v>2</v>
       </c>
-      <c r="S87" t="inlineStr"/>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>Springer</t>
+        </is>
+      </c>
       <c r="T87" t="n">
         <v>2021</v>
       </c>
@@ -5573,7 +5877,11 @@
       <c r="R88" t="n">
         <v>2</v>
       </c>
-      <c r="S88" t="inlineStr"/>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>Hindawi Limited</t>
+        </is>
+      </c>
       <c r="T88" t="n">
         <v>2020</v>
       </c>
@@ -5629,7 +5937,11 @@
       <c r="R89" t="n">
         <v>2</v>
       </c>
-      <c r="S89" t="inlineStr"/>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>MDPI AG</t>
+        </is>
+      </c>
       <c r="T89" t="n">
         <v>2020</v>
       </c>
@@ -5685,7 +5997,11 @@
       <c r="R90" t="n">
         <v>2</v>
       </c>
-      <c r="S90" t="inlineStr"/>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>MDPI AG</t>
+        </is>
+      </c>
       <c r="T90" t="n">
         <v>2019</v>
       </c>
@@ -5741,7 +6057,11 @@
       <c r="R91" t="n">
         <v>2</v>
       </c>
-      <c r="S91" t="inlineStr"/>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>MDPI AG</t>
+        </is>
+      </c>
       <c r="T91" t="n">
         <v>2021</v>
       </c>
@@ -5801,7 +6121,11 @@
       <c r="R92" t="n">
         <v>2</v>
       </c>
-      <c r="S92" t="inlineStr"/>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>Springer Science and Business Media Deutschland GmbH</t>
+        </is>
+      </c>
       <c r="T92" t="n">
         <v>2020</v>
       </c>
@@ -5861,7 +6185,11 @@
       <c r="R93" t="n">
         <v>2</v>
       </c>
-      <c r="S93" t="inlineStr"/>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>Springer Science and Business Media B.V.</t>
+        </is>
+      </c>
       <c r="T93" t="n">
         <v>2020</v>
       </c>
@@ -5921,7 +6249,11 @@
       <c r="R94" t="n">
         <v>2</v>
       </c>
-      <c r="S94" t="inlineStr"/>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>Wit Press</t>
+        </is>
+      </c>
       <c r="T94" t="n">
         <v>2021</v>
       </c>
@@ -5981,7 +6313,11 @@
       <c r="R95" t="n">
         <v>2</v>
       </c>
-      <c r="S95" t="inlineStr"/>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>ITMO University</t>
+        </is>
+      </c>
       <c r="T95" t="n">
         <v>2021</v>
       </c>
@@ -6041,7 +6377,11 @@
       <c r="R96" t="n">
         <v>2</v>
       </c>
-      <c r="S96" t="inlineStr"/>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>Springer Science and Business Media Deutschland GmbH</t>
+        </is>
+      </c>
       <c r="T96" t="n">
         <v>2021</v>
       </c>
@@ -6101,7 +6441,11 @@
       <c r="R97" t="n">
         <v>2</v>
       </c>
-      <c r="S97" t="inlineStr"/>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>De Gruyter Open Ltd</t>
+        </is>
+      </c>
       <c r="T97" t="n">
         <v>2020</v>
       </c>
@@ -6157,7 +6501,11 @@
       <c r="R98" t="n">
         <v>2</v>
       </c>
-      <c r="S98" t="inlineStr"/>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>IOP Publishing Ltd</t>
+        </is>
+      </c>
       <c r="T98" t="n">
         <v>2021</v>
       </c>
@@ -6217,7 +6565,11 @@
       <c r="R99" t="n">
         <v>2</v>
       </c>
-      <c r="S99" t="inlineStr"/>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>Springer Science and Business Media Deutschland GmbH</t>
+        </is>
+      </c>
       <c r="T99" t="n">
         <v>2021</v>
       </c>
@@ -6277,7 +6629,11 @@
       <c r="R100" t="n">
         <v>2</v>
       </c>
-      <c r="S100" t="inlineStr"/>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>Springer</t>
+        </is>
+      </c>
       <c r="T100" t="n">
         <v>2019</v>
       </c>
@@ -6333,7 +6689,11 @@
       <c r="R101" t="n">
         <v>2</v>
       </c>
-      <c r="S101" t="inlineStr"/>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>IOP Publishing Ltd</t>
+        </is>
+      </c>
       <c r="T101" t="n">
         <v>2021</v>
       </c>
@@ -6393,7 +6753,11 @@
       <c r="R102" t="n">
         <v>2</v>
       </c>
-      <c r="S102" t="inlineStr"/>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>Budapest University of Technology and Economics</t>
+        </is>
+      </c>
       <c r="T102" t="n">
         <v>2020</v>
       </c>
@@ -6449,7 +6813,11 @@
       <c r="R103" t="n">
         <v>2</v>
       </c>
-      <c r="S103" t="inlineStr"/>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>Springer Science and Business Media Deutschland GmbH</t>
+        </is>
+      </c>
       <c r="T103" t="n">
         <v>2021</v>
       </c>
@@ -6509,7 +6877,11 @@
       <c r="R104" t="n">
         <v>2</v>
       </c>
-      <c r="S104" t="inlineStr"/>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>Springer Verlag</t>
+        </is>
+      </c>
       <c r="T104" t="n">
         <v>2019</v>
       </c>
@@ -6565,7 +6937,11 @@
       <c r="R105" t="n">
         <v>2</v>
       </c>
-      <c r="S105" t="inlineStr"/>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>IOP Publishing Ltd</t>
+        </is>
+      </c>
       <c r="T105" t="n">
         <v>2020</v>
       </c>
@@ -6625,7 +7001,11 @@
       <c r="R106" t="n">
         <v>2</v>
       </c>
-      <c r="S106" t="inlineStr"/>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>Springer Science and Business Media Deutschland GmbH</t>
+        </is>
+      </c>
       <c r="T106" t="n">
         <v>2020</v>
       </c>
@@ -6685,7 +7065,11 @@
       <c r="R107" t="n">
         <v>2</v>
       </c>
-      <c r="S107" t="inlineStr"/>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>Assoc. of Mechanical Eng. and Technicians of Slovenia</t>
+        </is>
+      </c>
       <c r="T107" t="n">
         <v>2019</v>
       </c>
@@ -6741,7 +7125,11 @@
       <c r="R108" t="n">
         <v>2</v>
       </c>
-      <c r="S108" t="inlineStr"/>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>Hindawi Limited</t>
+        </is>
+      </c>
       <c r="T108" t="n">
         <v>2021</v>
       </c>
@@ -6797,7 +7185,11 @@
       <c r="R109" t="n">
         <v>2</v>
       </c>
-      <c r="S109" t="inlineStr"/>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>IOP Publishing Ltd</t>
+        </is>
+      </c>
       <c r="T109" t="n">
         <v>2021</v>
       </c>
@@ -6853,7 +7245,11 @@
       <c r="R110" t="n">
         <v>2</v>
       </c>
-      <c r="S110" t="inlineStr"/>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>MDPI</t>
+        </is>
+      </c>
       <c r="T110" t="n">
         <v>2020</v>
       </c>
@@ -6913,7 +7309,11 @@
       <c r="R111" t="n">
         <v>2</v>
       </c>
-      <c r="S111" t="inlineStr"/>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>Springer International Publishing</t>
+        </is>
+      </c>
       <c r="T111" t="n">
         <v>2016</v>
       </c>
@@ -6969,7 +7369,11 @@
       <c r="R112" t="n">
         <v>2</v>
       </c>
-      <c r="S112" t="inlineStr"/>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>IOP Publishing Ltd</t>
+        </is>
+      </c>
       <c r="T112" t="n">
         <v>2021</v>
       </c>
@@ -7025,7 +7429,11 @@
       <c r="R113" t="n">
         <v>2</v>
       </c>
-      <c r="S113" t="inlineStr"/>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery (ACM)</t>
+        </is>
+      </c>
       <c r="T113" t="n">
         <v>2021</v>
       </c>
@@ -7085,7 +7493,11 @@
       <c r="R114" t="n">
         <v>2</v>
       </c>
-      <c r="S114" t="inlineStr"/>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T114" t="n">
         <v>2021</v>
       </c>
@@ -7141,7 +7553,11 @@
       <c r="R115" t="n">
         <v>2</v>
       </c>
-      <c r="S115" t="inlineStr"/>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>IOP Publishing Ltd</t>
+        </is>
+      </c>
       <c r="T115" t="n">
         <v>2020</v>
       </c>
@@ -7201,7 +7617,11 @@
       <c r="R116" t="n">
         <v>2</v>
       </c>
-      <c r="S116" t="inlineStr"/>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>Springer International Publishing</t>
+        </is>
+      </c>
       <c r="T116" t="n">
         <v>2016</v>
       </c>
@@ -7261,7 +7681,11 @@
       <c r="R117" t="n">
         <v>2</v>
       </c>
-      <c r="S117" t="inlineStr"/>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>Springer Science and Business Media Deutschland GmbH</t>
+        </is>
+      </c>
       <c r="T117" t="n">
         <v>2021</v>
       </c>
@@ -7359,7 +7783,11 @@
       <c r="R119" t="n">
         <v>2</v>
       </c>
-      <c r="S119" t="inlineStr"/>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>Institute of Physics Publishing</t>
+        </is>
+      </c>
       <c r="T119" t="n">
         <v>2019</v>
       </c>
@@ -7415,7 +7843,11 @@
       <c r="R120" t="n">
         <v>2</v>
       </c>
-      <c r="S120" t="inlineStr"/>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>IOP Publishing Ltd</t>
+        </is>
+      </c>
       <c r="T120" t="n">
         <v>2019</v>
       </c>
@@ -7475,7 +7907,11 @@
       <c r="R121" t="n">
         <v>2</v>
       </c>
-      <c r="S121" t="inlineStr"/>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>Springer</t>
+        </is>
+      </c>
       <c r="T121" t="n">
         <v>2020</v>
       </c>
@@ -7531,7 +7967,11 @@
       <c r="R122" t="n">
         <v>2</v>
       </c>
-      <c r="S122" t="inlineStr"/>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>EDP Sciences</t>
+        </is>
+      </c>
       <c r="T122" t="n">
         <v>2020</v>
       </c>
@@ -7587,7 +8027,11 @@
       <c r="R123" t="n">
         <v>2</v>
       </c>
-      <c r="S123" t="inlineStr"/>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>IOP Publishing Ltd</t>
+        </is>
+      </c>
       <c r="T123" t="n">
         <v>2020</v>
       </c>
@@ -7647,7 +8091,11 @@
       <c r="R124" t="n">
         <v>2</v>
       </c>
-      <c r="S124" t="inlineStr"/>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>Springer Verlag</t>
+        </is>
+      </c>
       <c r="T124" t="n">
         <v>2019</v>
       </c>
@@ -7707,7 +8155,11 @@
       <c r="R125" t="n">
         <v>2</v>
       </c>
-      <c r="S125" t="inlineStr"/>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>Springer</t>
+        </is>
+      </c>
       <c r="T125" t="n">
         <v>2019</v>
       </c>
@@ -7767,7 +8219,11 @@
       <c r="R126" t="n">
         <v>2</v>
       </c>
-      <c r="S126" t="inlineStr"/>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>Springer Verlag</t>
+        </is>
+      </c>
       <c r="T126" t="n">
         <v>2019</v>
       </c>
@@ -7821,7 +8277,11 @@
       <c r="R127" t="n">
         <v>2</v>
       </c>
-      <c r="S127" t="inlineStr"/>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>SPIE-Intl Soc Optical Eng</t>
+        </is>
+      </c>
       <c r="T127" t="n">
         <v>2019</v>
       </c>
@@ -7877,7 +8337,11 @@
       <c r="R128" t="n">
         <v>2</v>
       </c>
-      <c r="S128" t="inlineStr"/>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>IOP Publishing Ltd</t>
+        </is>
+      </c>
       <c r="T128" t="n">
         <v>2021</v>
       </c>
@@ -7937,7 +8401,11 @@
       <c r="R129" t="n">
         <v>2</v>
       </c>
-      <c r="S129" t="inlineStr"/>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>MDPI AG</t>
+        </is>
+      </c>
       <c r="T129" t="n">
         <v>2021</v>
       </c>
@@ -7997,7 +8465,11 @@
       <c r="R130" t="n">
         <v>2</v>
       </c>
-      <c r="S130" t="inlineStr"/>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>MDPI AG</t>
+        </is>
+      </c>
       <c r="T130" t="n">
         <v>2020</v>
       </c>
@@ -8057,7 +8529,11 @@
       <c r="R131" t="n">
         <v>2</v>
       </c>
-      <c r="S131" t="inlineStr"/>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T131" t="n">
         <v>2017</v>
       </c>
@@ -8161,7 +8637,11 @@
       <c r="R133" t="n">
         <v>2</v>
       </c>
-      <c r="S133" t="inlineStr"/>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery (ACM)</t>
+        </is>
+      </c>
       <c r="T133" t="n">
         <v>2022</v>
       </c>
@@ -8221,7 +8701,11 @@
       <c r="R134" t="n">
         <v>2</v>
       </c>
-      <c r="S134" t="inlineStr"/>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T134" t="n">
         <v>2021</v>
       </c>
@@ -8281,7 +8765,11 @@
       <c r="R135" t="n">
         <v>2</v>
       </c>
-      <c r="S135" t="inlineStr"/>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T135" t="n">
         <v>2021</v>
       </c>
@@ -8337,7 +8825,11 @@
       <c r="R136" t="n">
         <v>2</v>
       </c>
-      <c r="S136" t="inlineStr"/>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery (ACM)</t>
+        </is>
+      </c>
       <c r="T136" t="n">
         <v>2021</v>
       </c>
@@ -8393,7 +8885,11 @@
       <c r="R137" t="n">
         <v>2</v>
       </c>
-      <c r="S137" t="inlineStr"/>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T137" t="n">
         <v>2017</v>
       </c>
@@ -8449,7 +8945,11 @@
       <c r="R138" t="n">
         <v>2</v>
       </c>
-      <c r="S138" t="inlineStr"/>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T138" t="n">
         <v>2017</v>
       </c>
@@ -8505,7 +9005,11 @@
       <c r="R139" t="n">
         <v>2</v>
       </c>
-      <c r="S139" t="inlineStr"/>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T139" t="n">
         <v>2017</v>
       </c>
@@ -8565,7 +9069,11 @@
       <c r="R140" t="n">
         <v>2</v>
       </c>
-      <c r="S140" t="inlineStr"/>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T140" t="n">
         <v>2021</v>
       </c>
@@ -8667,7 +9175,11 @@
       <c r="R142" t="n">
         <v>2</v>
       </c>
-      <c r="S142" t="inlineStr"/>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T142" t="n">
         <v>2017</v>
       </c>
@@ -8723,7 +9235,11 @@
       <c r="R143" t="n">
         <v>2</v>
       </c>
-      <c r="S143" t="inlineStr"/>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T143" t="n">
         <v>2022</v>
       </c>
@@ -8779,7 +9295,11 @@
       <c r="R144" t="n">
         <v>2</v>
       </c>
-      <c r="S144" t="inlineStr"/>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T144" t="n">
         <v>2021</v>
       </c>
@@ -8839,7 +9359,11 @@
       <c r="R145" t="n">
         <v>2</v>
       </c>
-      <c r="S145" t="inlineStr"/>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T145" t="n">
         <v>2021</v>
       </c>
@@ -8887,7 +9411,11 @@
       <c r="R146" t="n">
         <v>2</v>
       </c>
-      <c r="S146" t="inlineStr"/>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
       <c r="T146" t="n">
         <v>2015</v>
       </c>
@@ -8989,7 +9517,11 @@
       <c r="R148" t="n">
         <v>2</v>
       </c>
-      <c r="S148" t="inlineStr"/>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T148" t="n">
         <v>2019</v>
       </c>
@@ -9049,7 +9581,11 @@
       <c r="R149" t="n">
         <v>2</v>
       </c>
-      <c r="S149" t="inlineStr"/>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T149" t="n">
         <v>2019</v>
       </c>
@@ -9093,7 +9629,11 @@
       <c r="R150" t="n">
         <v>2</v>
       </c>
-      <c r="S150" t="inlineStr"/>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
       <c r="T150" t="n">
         <v>2020</v>
       </c>
@@ -9153,7 +9693,11 @@
       <c r="R151" t="n">
         <v>2</v>
       </c>
-      <c r="S151" t="inlineStr"/>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T151" t="n">
         <v>2021</v>
       </c>
@@ -9209,7 +9753,11 @@
       <c r="R152" t="n">
         <v>2</v>
       </c>
-      <c r="S152" t="inlineStr"/>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T152" t="n">
         <v>2021</v>
       </c>
@@ -9269,7 +9817,11 @@
       <c r="R153" t="n">
         <v>2</v>
       </c>
-      <c r="S153" t="inlineStr"/>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T153" t="n">
         <v>2019</v>
       </c>
@@ -9327,7 +9879,11 @@
       <c r="R154" t="n">
         <v>2</v>
       </c>
-      <c r="S154" t="inlineStr"/>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T154" t="n">
         <v>2019</v>
       </c>
@@ -9385,7 +9941,11 @@
       <c r="R155" t="n">
         <v>2</v>
       </c>
-      <c r="S155" t="inlineStr"/>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T155" t="n">
         <v>2021</v>
       </c>
@@ -9441,7 +10001,11 @@
       <c r="R156" t="n">
         <v>2</v>
       </c>
-      <c r="S156" t="inlineStr"/>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T156" t="n">
         <v>2021</v>
       </c>
@@ -9501,7 +10065,11 @@
       <c r="R157" t="n">
         <v>2</v>
       </c>
-      <c r="S157" t="inlineStr"/>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T157" t="n">
         <v>2018</v>
       </c>
@@ -9561,7 +10129,11 @@
       <c r="R158" t="n">
         <v>2</v>
       </c>
-      <c r="S158" t="inlineStr"/>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T158" t="n">
         <v>2021</v>
       </c>
@@ -9621,7 +10193,11 @@
       <c r="R159" t="n">
         <v>2</v>
       </c>
-      <c r="S159" t="inlineStr"/>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T159" t="n">
         <v>2018</v>
       </c>
@@ -9681,7 +10257,11 @@
       <c r="R160" t="n">
         <v>2</v>
       </c>
-      <c r="S160" t="inlineStr"/>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T160" t="n">
         <v>2021</v>
       </c>
@@ -9739,7 +10319,11 @@
       <c r="R161" t="n">
         <v>2</v>
       </c>
-      <c r="S161" t="inlineStr"/>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery (ACM)</t>
+        </is>
+      </c>
       <c r="T161" t="n">
         <v>2021</v>
       </c>
@@ -9795,7 +10379,11 @@
       <c r="R162" t="n">
         <v>2</v>
       </c>
-      <c r="S162" t="inlineStr"/>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery (ACM)</t>
+        </is>
+      </c>
       <c r="T162" t="n">
         <v>2021</v>
       </c>
@@ -9855,7 +10443,11 @@
       <c r="R163" t="n">
         <v>2</v>
       </c>
-      <c r="S163" t="inlineStr"/>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T163" t="n">
         <v>2021</v>
       </c>
@@ -9915,7 +10507,11 @@
       <c r="R164" t="n">
         <v>2</v>
       </c>
-      <c r="S164" t="inlineStr"/>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T164" t="n">
         <v>2021</v>
       </c>
@@ -9975,7 +10571,11 @@
       <c r="R165" t="n">
         <v>2</v>
       </c>
-      <c r="S165" t="inlineStr"/>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T165" t="n">
         <v>2021</v>
       </c>
@@ -10031,7 +10631,11 @@
       <c r="R166" t="n">
         <v>2</v>
       </c>
-      <c r="S166" t="inlineStr"/>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T166" t="n">
         <v>2020</v>
       </c>
@@ -10089,7 +10693,11 @@
       <c r="R167" t="n">
         <v>2</v>
       </c>
-      <c r="S167" t="inlineStr"/>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T167" t="n">
         <v>2020</v>
       </c>
@@ -10145,7 +10753,11 @@
       <c r="R168" t="n">
         <v>2</v>
       </c>
-      <c r="S168" t="inlineStr"/>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T168" t="n">
         <v>2020</v>
       </c>
@@ -10201,7 +10813,11 @@
       <c r="R169" t="n">
         <v>2</v>
       </c>
-      <c r="S169" t="inlineStr"/>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T169" t="n">
         <v>2021</v>
       </c>
@@ -10261,7 +10877,11 @@
       <c r="R170" t="n">
         <v>2</v>
       </c>
-      <c r="S170" t="inlineStr"/>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T170" t="n">
         <v>2021</v>
       </c>
@@ -10317,7 +10937,11 @@
       <c r="R171" t="n">
         <v>2</v>
       </c>
-      <c r="S171" t="inlineStr"/>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T171" t="n">
         <v>2021</v>
       </c>
@@ -10373,7 +10997,11 @@
       <c r="R172" t="n">
         <v>2</v>
       </c>
-      <c r="S172" t="inlineStr"/>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T172" t="n">
         <v>2021</v>
       </c>
@@ -10433,7 +11061,11 @@
       <c r="R173" t="n">
         <v>2</v>
       </c>
-      <c r="S173" t="inlineStr"/>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T173" t="n">
         <v>2020</v>
       </c>
@@ -10493,7 +11125,11 @@
       <c r="R174" t="n">
         <v>2</v>
       </c>
-      <c r="S174" t="inlineStr"/>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T174" t="n">
         <v>2020</v>
       </c>
@@ -10595,7 +11231,11 @@
       <c r="R176" t="n">
         <v>2</v>
       </c>
-      <c r="S176" t="inlineStr"/>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T176" t="n">
         <v>2021</v>
       </c>
@@ -10655,7 +11295,11 @@
       <c r="R177" t="n">
         <v>2</v>
       </c>
-      <c r="S177" t="inlineStr"/>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T177" t="n">
         <v>2021</v>
       </c>
@@ -10715,7 +11359,11 @@
       <c r="R178" t="n">
         <v>2</v>
       </c>
-      <c r="S178" t="inlineStr"/>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery (ACM)</t>
+        </is>
+      </c>
       <c r="T178" t="n">
         <v>2021</v>
       </c>
@@ -10775,7 +11423,11 @@
       <c r="R179" t="n">
         <v>2</v>
       </c>
-      <c r="S179" t="inlineStr"/>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T179" t="n">
         <v>2021</v>
       </c>
@@ -10831,7 +11483,11 @@
       <c r="R180" t="n">
         <v>2</v>
       </c>
-      <c r="S180" t="inlineStr"/>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T180" t="n">
         <v>2021</v>
       </c>
@@ -10889,7 +11545,11 @@
       <c r="R181" t="n">
         <v>2</v>
       </c>
-      <c r="S181" t="inlineStr"/>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T181" t="n">
         <v>2021</v>
       </c>
@@ -10949,7 +11609,11 @@
       <c r="R182" t="n">
         <v>2</v>
       </c>
-      <c r="S182" t="inlineStr"/>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T182" t="n">
         <v>2021</v>
       </c>
@@ -11005,7 +11669,11 @@
       <c r="R183" t="n">
         <v>2</v>
       </c>
-      <c r="S183" t="inlineStr"/>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery (ACM)</t>
+        </is>
+      </c>
       <c r="T183" t="n">
         <v>2021</v>
       </c>
@@ -11065,7 +11733,11 @@
       <c r="R184" t="n">
         <v>2</v>
       </c>
-      <c r="S184" t="inlineStr"/>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T184" t="n">
         <v>2021</v>
       </c>
@@ -11125,7 +11797,11 @@
       <c r="R185" t="n">
         <v>2</v>
       </c>
-      <c r="S185" t="inlineStr"/>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T185" t="n">
         <v>2021</v>
       </c>
@@ -11185,7 +11861,11 @@
       <c r="R186" t="n">
         <v>2</v>
       </c>
-      <c r="S186" t="inlineStr"/>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T186" t="n">
         <v>2021</v>
       </c>
@@ -11243,7 +11923,11 @@
       <c r="R187" t="n">
         <v>2</v>
       </c>
-      <c r="S187" t="inlineStr"/>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T187" t="n">
         <v>2021</v>
       </c>
@@ -11303,7 +11987,11 @@
       <c r="R188" t="n">
         <v>2</v>
       </c>
-      <c r="S188" t="inlineStr"/>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T188" t="n">
         <v>2021</v>
       </c>
@@ -11359,7 +12047,11 @@
       <c r="R189" t="n">
         <v>2</v>
       </c>
-      <c r="S189" t="inlineStr"/>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T189" t="n">
         <v>2021</v>
       </c>
@@ -11415,7 +12107,11 @@
       <c r="R190" t="n">
         <v>2</v>
       </c>
-      <c r="S190" t="inlineStr"/>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T190" t="n">
         <v>2021</v>
       </c>
@@ -11475,7 +12171,11 @@
       <c r="R191" t="n">
         <v>2</v>
       </c>
-      <c r="S191" t="inlineStr"/>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T191" t="n">
         <v>2021</v>
       </c>
@@ -11531,7 +12231,11 @@
       <c r="R192" t="n">
         <v>2</v>
       </c>
-      <c r="S192" t="inlineStr"/>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T192" t="n">
         <v>2020</v>
       </c>
@@ -11591,7 +12295,11 @@
       <c r="R193" t="n">
         <v>2</v>
       </c>
-      <c r="S193" t="inlineStr"/>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T193" t="n">
         <v>2021</v>
       </c>
@@ -11651,7 +12359,11 @@
       <c r="R194" t="n">
         <v>2</v>
       </c>
-      <c r="S194" t="inlineStr"/>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T194" t="n">
         <v>2021</v>
       </c>
@@ -11711,7 +12423,11 @@
       <c r="R195" t="n">
         <v>2</v>
       </c>
-      <c r="S195" t="inlineStr"/>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T195" t="n">
         <v>2021</v>
       </c>
@@ -11771,7 +12487,11 @@
       <c r="R196" t="n">
         <v>2</v>
       </c>
-      <c r="S196" t="inlineStr"/>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T196" t="n">
         <v>2021</v>
       </c>
@@ -11831,7 +12551,11 @@
       <c r="R197" t="n">
         <v>2</v>
       </c>
-      <c r="S197" t="inlineStr"/>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T197" t="n">
         <v>2021</v>
       </c>
@@ -11887,7 +12611,11 @@
       <c r="R198" t="n">
         <v>2</v>
       </c>
-      <c r="S198" t="inlineStr"/>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T198" t="n">
         <v>2020</v>
       </c>
@@ -11947,7 +12675,11 @@
       <c r="R199" t="n">
         <v>2</v>
       </c>
-      <c r="S199" t="inlineStr"/>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T199" t="n">
         <v>2020</v>
       </c>
@@ -12007,7 +12739,11 @@
       <c r="R200" t="n">
         <v>2</v>
       </c>
-      <c r="S200" t="inlineStr"/>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T200" t="n">
         <v>2020</v>
       </c>
@@ -12067,7 +12803,11 @@
       <c r="R201" t="n">
         <v>2</v>
       </c>
-      <c r="S201" t="inlineStr"/>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T201" t="n">
         <v>2020</v>
       </c>
@@ -12121,7 +12861,11 @@
       <c r="R202" t="n">
         <v>2</v>
       </c>
-      <c r="S202" t="inlineStr"/>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery (ACM)</t>
+        </is>
+      </c>
       <c r="T202" t="n">
         <v>2021</v>
       </c>
@@ -12181,7 +12925,11 @@
       <c r="R203" t="n">
         <v>2</v>
       </c>
-      <c r="S203" t="inlineStr"/>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T203" t="n">
         <v>2020</v>
       </c>
@@ -12241,7 +12989,11 @@
       <c r="R204" t="n">
         <v>2</v>
       </c>
-      <c r="S204" t="inlineStr"/>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T204" t="n">
         <v>2020</v>
       </c>
@@ -12301,7 +13053,11 @@
       <c r="R205" t="n">
         <v>2</v>
       </c>
-      <c r="S205" t="inlineStr"/>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T205" t="n">
         <v>2020</v>
       </c>
@@ -12361,7 +13117,11 @@
       <c r="R206" t="n">
         <v>2</v>
       </c>
-      <c r="S206" t="inlineStr"/>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T206" t="n">
         <v>2020</v>
       </c>
@@ -12595,7 +13355,11 @@
       <c r="R211" t="n">
         <v>2</v>
       </c>
-      <c r="S211" t="inlineStr"/>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T211" t="n">
         <v>2020</v>
       </c>
@@ -12651,7 +13415,11 @@
       <c r="R212" t="n">
         <v>2</v>
       </c>
-      <c r="S212" t="inlineStr"/>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T212" t="n">
         <v>2020</v>
       </c>
@@ -12707,7 +13475,11 @@
       <c r="R213" t="n">
         <v>2</v>
       </c>
-      <c r="S213" t="inlineStr"/>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T213" t="n">
         <v>2020</v>
       </c>
@@ -12765,7 +13537,11 @@
       <c r="R214" t="n">
         <v>2</v>
       </c>
-      <c r="S214" t="inlineStr"/>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T214" t="n">
         <v>2020</v>
       </c>
@@ -12825,7 +13601,11 @@
       <c r="R215" t="n">
         <v>2</v>
       </c>
-      <c r="S215" t="inlineStr"/>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T215" t="n">
         <v>2020</v>
       </c>
@@ -12885,7 +13665,11 @@
       <c r="R216" t="n">
         <v>2</v>
       </c>
-      <c r="S216" t="inlineStr"/>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T216" t="n">
         <v>2020</v>
       </c>
@@ -12943,7 +13727,11 @@
       <c r="R217" t="n">
         <v>2</v>
       </c>
-      <c r="S217" t="inlineStr"/>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery (ACM)</t>
+        </is>
+      </c>
       <c r="T217" t="n">
         <v>2020</v>
       </c>
@@ -12987,7 +13775,11 @@
       <c r="R218" t="n">
         <v>2</v>
       </c>
-      <c r="S218" t="inlineStr"/>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>EDA Consortium</t>
+        </is>
+      </c>
       <c r="T218" t="n">
         <v>2020</v>
       </c>
@@ -13043,7 +13835,11 @@
       <c r="R219" t="n">
         <v>2</v>
       </c>
-      <c r="S219" t="inlineStr"/>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T219" t="n">
         <v>2020</v>
       </c>
@@ -13099,7 +13895,11 @@
       <c r="R220" t="n">
         <v>2</v>
       </c>
-      <c r="S220" t="inlineStr"/>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T220" t="n">
         <v>2020</v>
       </c>
@@ -13155,7 +13955,11 @@
       <c r="R221" t="n">
         <v>2</v>
       </c>
-      <c r="S221" t="inlineStr"/>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T221" t="n">
         <v>2020</v>
       </c>
@@ -13215,7 +14019,11 @@
       <c r="R222" t="n">
         <v>2</v>
       </c>
-      <c r="S222" t="inlineStr"/>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T222" t="n">
         <v>2020</v>
       </c>
@@ -13271,7 +14079,11 @@
       <c r="R223" t="n">
         <v>2</v>
       </c>
-      <c r="S223" t="inlineStr"/>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T223" t="n">
         <v>2020</v>
       </c>
@@ -13655,7 +14467,11 @@
       <c r="R232" t="n">
         <v>2</v>
       </c>
-      <c r="S232" t="inlineStr"/>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T232" t="n">
         <v>2020</v>
       </c>
@@ -13799,7 +14615,11 @@
       <c r="R235" t="n">
         <v>2</v>
       </c>
-      <c r="S235" t="inlineStr"/>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T235" t="n">
         <v>2020</v>
       </c>
@@ -13899,7 +14719,11 @@
       <c r="R237" t="n">
         <v>2</v>
       </c>
-      <c r="S237" t="inlineStr"/>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T237" t="n">
         <v>2020</v>
       </c>
@@ -13959,7 +14783,11 @@
       <c r="R238" t="n">
         <v>2</v>
       </c>
-      <c r="S238" t="inlineStr"/>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T238" t="n">
         <v>2019</v>
       </c>
@@ -14019,7 +14847,11 @@
       <c r="R239" t="n">
         <v>2</v>
       </c>
-      <c r="S239" t="inlineStr"/>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T239" t="n">
         <v>2020</v>
       </c>
@@ -14079,7 +14911,11 @@
       <c r="R240" t="n">
         <v>2</v>
       </c>
-      <c r="S240" t="inlineStr"/>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T240" t="n">
         <v>2020</v>
       </c>
@@ -14135,7 +14971,11 @@
       <c r="R241" t="n">
         <v>2</v>
       </c>
-      <c r="S241" t="inlineStr"/>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T241" t="n">
         <v>2020</v>
       </c>
@@ -14195,7 +15035,11 @@
       <c r="R242" t="n">
         <v>2</v>
       </c>
-      <c r="S242" t="inlineStr"/>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T242" t="n">
         <v>2019</v>
       </c>
@@ -14251,7 +15095,11 @@
       <c r="R243" t="n">
         <v>2</v>
       </c>
-      <c r="S243" t="inlineStr"/>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T243" t="n">
         <v>2018</v>
       </c>
@@ -14311,7 +15159,11 @@
       <c r="R244" t="n">
         <v>2</v>
       </c>
-      <c r="S244" t="inlineStr"/>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T244" t="n">
         <v>2019</v>
       </c>
@@ -14367,7 +15219,11 @@
       <c r="R245" t="n">
         <v>2</v>
       </c>
-      <c r="S245" t="inlineStr"/>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T245" t="n">
         <v>2020</v>
       </c>
@@ -14427,7 +15283,11 @@
       <c r="R246" t="n">
         <v>2</v>
       </c>
-      <c r="S246" t="inlineStr"/>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T246" t="n">
         <v>2019</v>
       </c>
@@ -14483,7 +15343,11 @@
       <c r="R247" t="n">
         <v>2</v>
       </c>
-      <c r="S247" t="inlineStr"/>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T247" t="n">
         <v>2020</v>
       </c>
@@ -14535,7 +15399,11 @@
       <c r="R248" t="n">
         <v>2</v>
       </c>
-      <c r="S248" t="inlineStr"/>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T248" t="n">
         <v>2019</v>
       </c>
@@ -14593,7 +15461,11 @@
       <c r="R249" t="n">
         <v>2</v>
       </c>
-      <c r="S249" t="inlineStr"/>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T249" t="n">
         <v>2018</v>
       </c>
@@ -14699,7 +15571,11 @@
       <c r="R251" t="n">
         <v>2</v>
       </c>
-      <c r="S251" t="inlineStr"/>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T251" t="n">
         <v>2019</v>
       </c>
@@ -14755,7 +15631,11 @@
       <c r="R252" t="n">
         <v>2</v>
       </c>
-      <c r="S252" t="inlineStr"/>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T252" t="n">
         <v>2018</v>
       </c>
@@ -14811,7 +15691,11 @@
       <c r="R253" t="n">
         <v>2</v>
       </c>
-      <c r="S253" t="inlineStr"/>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T253" t="n">
         <v>2019</v>
       </c>
@@ -14871,7 +15755,11 @@
       <c r="R254" t="n">
         <v>2</v>
       </c>
-      <c r="S254" t="inlineStr"/>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T254" t="n">
         <v>2020</v>
       </c>
@@ -14927,7 +15815,11 @@
       <c r="R255" t="n">
         <v>2</v>
       </c>
-      <c r="S255" t="inlineStr"/>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T255" t="n">
         <v>2020</v>
       </c>
@@ -14987,7 +15879,11 @@
       <c r="R256" t="n">
         <v>2</v>
       </c>
-      <c r="S256" t="inlineStr"/>
+      <c r="S256" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T256" t="n">
         <v>2020</v>
       </c>
@@ -15047,7 +15943,11 @@
       <c r="R257" t="n">
         <v>2</v>
       </c>
-      <c r="S257" t="inlineStr"/>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T257" t="n">
         <v>2020</v>
       </c>
@@ -15107,7 +16007,11 @@
       <c r="R258" t="n">
         <v>2</v>
       </c>
-      <c r="S258" t="inlineStr"/>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T258" t="n">
         <v>2019</v>
       </c>
@@ -15167,7 +16071,11 @@
       <c r="R259" t="n">
         <v>2</v>
       </c>
-      <c r="S259" t="inlineStr"/>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T259" t="n">
         <v>2020</v>
       </c>
@@ -15227,7 +16135,11 @@
       <c r="R260" t="n">
         <v>2</v>
       </c>
-      <c r="S260" t="inlineStr"/>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T260" t="n">
         <v>2020</v>
       </c>
@@ -15283,7 +16195,11 @@
       <c r="R261" t="n">
         <v>2</v>
       </c>
-      <c r="S261" t="inlineStr"/>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T261" t="n">
         <v>2019</v>
       </c>
@@ -15343,7 +16259,11 @@
       <c r="R262" t="n">
         <v>2</v>
       </c>
-      <c r="S262" t="inlineStr"/>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T262" t="n">
         <v>2020</v>
       </c>
@@ -15399,7 +16319,11 @@
       <c r="R263" t="n">
         <v>2</v>
       </c>
-      <c r="S263" t="inlineStr"/>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T263" t="n">
         <v>2019</v>
       </c>
@@ -15455,7 +16379,11 @@
       <c r="R264" t="n">
         <v>2</v>
       </c>
-      <c r="S264" t="inlineStr"/>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T264" t="n">
         <v>2020</v>
       </c>
@@ -15515,7 +16443,11 @@
       <c r="R265" t="n">
         <v>2</v>
       </c>
-      <c r="S265" t="inlineStr"/>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T265" t="n">
         <v>2020</v>
       </c>
@@ -15619,7 +16551,11 @@
       <c r="R267" t="n">
         <v>2</v>
       </c>
-      <c r="S267" t="inlineStr"/>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T267" t="n">
         <v>2020</v>
       </c>
@@ -15719,7 +16655,11 @@
       <c r="R269" t="n">
         <v>2</v>
       </c>
-      <c r="S269" t="inlineStr"/>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T269" t="n">
         <v>2020</v>
       </c>
@@ -15779,7 +16719,11 @@
       <c r="R270" t="n">
         <v>2</v>
       </c>
-      <c r="S270" t="inlineStr"/>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T270" t="n">
         <v>2019</v>
       </c>
@@ -15971,7 +16915,11 @@
       <c r="R274" t="n">
         <v>2</v>
       </c>
-      <c r="S274" t="inlineStr"/>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T274" t="n">
         <v>2020</v>
       </c>
@@ -16031,7 +16979,11 @@
       <c r="R275" t="n">
         <v>2</v>
       </c>
-      <c r="S275" t="inlineStr"/>
+      <c r="S275" t="inlineStr">
+        <is>
+          <t>IEEE Computer Society</t>
+        </is>
+      </c>
       <c r="T275" t="n">
         <v>2020</v>
       </c>
@@ -16091,7 +17043,11 @@
       <c r="R276" t="n">
         <v>2</v>
       </c>
-      <c r="S276" t="inlineStr"/>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T276" t="n">
         <v>2019</v>
       </c>
@@ -16147,7 +17103,11 @@
       <c r="R277" t="n">
         <v>2</v>
       </c>
-      <c r="S277" t="inlineStr"/>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T277" t="n">
         <v>2019</v>
       </c>
@@ -16207,7 +17167,11 @@
       <c r="R278" t="n">
         <v>2</v>
       </c>
-      <c r="S278" t="inlineStr"/>
+      <c r="S278" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T278" t="n">
         <v>2020</v>
       </c>
@@ -16267,7 +17231,11 @@
       <c r="R279" t="n">
         <v>2</v>
       </c>
-      <c r="S279" t="inlineStr"/>
+      <c r="S279" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T279" t="n">
         <v>2020</v>
       </c>
@@ -16327,7 +17295,11 @@
       <c r="R280" t="n">
         <v>2</v>
       </c>
-      <c r="S280" t="inlineStr"/>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T280" t="n">
         <v>2019</v>
       </c>
@@ -16387,7 +17359,11 @@
       <c r="R281" t="n">
         <v>2</v>
       </c>
-      <c r="S281" t="inlineStr"/>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T281" t="n">
         <v>2019</v>
       </c>
@@ -16443,7 +17419,11 @@
       <c r="R282" t="n">
         <v>2</v>
       </c>
-      <c r="S282" t="inlineStr"/>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T282" t="n">
         <v>2019</v>
       </c>
@@ -16503,7 +17483,11 @@
       <c r="R283" t="n">
         <v>2</v>
       </c>
-      <c r="S283" t="inlineStr"/>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T283" t="n">
         <v>2019</v>
       </c>
@@ -16559,7 +17543,11 @@
       <c r="R284" t="n">
         <v>2</v>
       </c>
-      <c r="S284" t="inlineStr"/>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T284" t="n">
         <v>2019</v>
       </c>
@@ -16619,7 +17607,11 @@
       <c r="R285" t="n">
         <v>2</v>
       </c>
-      <c r="S285" t="inlineStr"/>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T285" t="n">
         <v>2019</v>
       </c>
@@ -16677,7 +17669,11 @@
       <c r="R286" t="n">
         <v>2</v>
       </c>
-      <c r="S286" t="inlineStr"/>
+      <c r="S286" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
+        </is>
+      </c>
       <c r="T286" t="n">
         <v>2021</v>
       </c>
@@ -16737,7 +17733,11 @@
       <c r="R287" t="n">
         <v>2</v>
       </c>
-      <c r="S287" t="inlineStr"/>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T287" t="n">
         <v>2020</v>
       </c>
@@ -16797,7 +17797,11 @@
       <c r="R288" t="n">
         <v>2</v>
       </c>
-      <c r="S288" t="inlineStr"/>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T288" t="n">
         <v>2019</v>
       </c>
@@ -16853,7 +17857,11 @@
       <c r="R289" t="n">
         <v>2</v>
       </c>
-      <c r="S289" t="inlineStr"/>
+      <c r="S289" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T289" t="n">
         <v>2019</v>
       </c>
@@ -16897,7 +17905,11 @@
       <c r="R290" t="n">
         <v>2</v>
       </c>
-      <c r="S290" t="inlineStr"/>
+      <c r="S290" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T290" t="n">
         <v>2019</v>
       </c>
@@ -16957,7 +17969,11 @@
       <c r="R291" t="n">
         <v>2</v>
       </c>
-      <c r="S291" t="inlineStr"/>
+      <c r="S291" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T291" t="n">
         <v>2019</v>
       </c>
@@ -17055,7 +18071,11 @@
       <c r="R293" t="n">
         <v>2</v>
       </c>
-      <c r="S293" t="inlineStr"/>
+      <c r="S293" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T293" t="n">
         <v>2019</v>
       </c>
@@ -17367,7 +18387,11 @@
       <c r="R300" t="n">
         <v>2</v>
       </c>
-      <c r="S300" t="inlineStr"/>
+      <c r="S300" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T300" t="n">
         <v>2019</v>
       </c>
@@ -17511,7 +18535,11 @@
       <c r="R303" t="n">
         <v>2</v>
       </c>
-      <c r="S303" t="inlineStr"/>
+      <c r="S303" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T303" t="n">
         <v>2019</v>
       </c>
@@ -17571,7 +18599,11 @@
       <c r="R304" t="n">
         <v>2</v>
       </c>
-      <c r="S304" t="inlineStr"/>
+      <c r="S304" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T304" t="n">
         <v>2019</v>
       </c>
@@ -17631,7 +18663,11 @@
       <c r="R305" t="n">
         <v>2</v>
       </c>
-      <c r="S305" t="inlineStr"/>
+      <c r="S305" t="inlineStr">
+        <is>
+          <t>ICST</t>
+        </is>
+      </c>
       <c r="T305" t="n">
         <v>2019</v>
       </c>
@@ -17689,7 +18725,11 @@
       <c r="R306" t="n">
         <v>2</v>
       </c>
-      <c r="S306" t="inlineStr"/>
+      <c r="S306" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T306" t="n">
         <v>2019</v>
       </c>
@@ -17749,7 +18789,11 @@
       <c r="R307" t="n">
         <v>2</v>
       </c>
-      <c r="S307" t="inlineStr"/>
+      <c r="S307" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T307" t="n">
         <v>2019</v>
       </c>
@@ -17809,7 +18853,11 @@
       <c r="R308" t="n">
         <v>2</v>
       </c>
-      <c r="S308" t="inlineStr"/>
+      <c r="S308" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T308" t="n">
         <v>2019</v>
       </c>
@@ -17865,7 +18913,11 @@
       <c r="R309" t="n">
         <v>2</v>
       </c>
-      <c r="S309" t="inlineStr"/>
+      <c r="S309" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T309" t="n">
         <v>2019</v>
       </c>
@@ -17925,7 +18977,11 @@
       <c r="R310" t="n">
         <v>2</v>
       </c>
-      <c r="S310" t="inlineStr"/>
+      <c r="S310" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T310" t="n">
         <v>2018</v>
       </c>
@@ -17985,7 +19041,11 @@
       <c r="R311" t="n">
         <v>2</v>
       </c>
-      <c r="S311" t="inlineStr"/>
+      <c r="S311" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T311" t="n">
         <v>2019</v>
       </c>
@@ -18041,7 +19101,11 @@
       <c r="R312" t="n">
         <v>2</v>
       </c>
-      <c r="S312" t="inlineStr"/>
+      <c r="S312" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T312" t="n">
         <v>2018</v>
       </c>
@@ -18097,7 +19161,11 @@
       <c r="R313" t="n">
         <v>2</v>
       </c>
-      <c r="S313" t="inlineStr"/>
+      <c r="S313" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T313" t="n">
         <v>2018</v>
       </c>
@@ -18199,7 +19267,11 @@
       <c r="R315" t="n">
         <v>2</v>
       </c>
-      <c r="S315" t="inlineStr"/>
+      <c r="S315" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T315" t="n">
         <v>2018</v>
       </c>
@@ -18301,7 +19373,11 @@
       <c r="R317" t="n">
         <v>2</v>
       </c>
-      <c r="S317" t="inlineStr"/>
+      <c r="S317" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T317" t="n">
         <v>2018</v>
       </c>
@@ -18489,7 +19565,11 @@
       <c r="R321" t="n">
         <v>2</v>
       </c>
-      <c r="S321" t="inlineStr"/>
+      <c r="S321" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T321" t="n">
         <v>2018</v>
       </c>
@@ -18545,7 +19625,11 @@
       <c r="R322" t="n">
         <v>2</v>
       </c>
-      <c r="S322" t="inlineStr"/>
+      <c r="S322" t="inlineStr">
+        <is>
+          <t>IEEE Computer Society</t>
+        </is>
+      </c>
       <c r="T322" t="n">
         <v>2018</v>
       </c>
@@ -18605,7 +19689,11 @@
       <c r="R323" t="n">
         <v>2</v>
       </c>
-      <c r="S323" t="inlineStr"/>
+      <c r="S323" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T323" t="n">
         <v>2018</v>
       </c>
@@ -18665,7 +19753,11 @@
       <c r="R324" t="n">
         <v>2</v>
       </c>
-      <c r="S324" t="inlineStr"/>
+      <c r="S324" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T324" t="n">
         <v>2018</v>
       </c>
@@ -18725,7 +19817,11 @@
       <c r="R325" t="n">
         <v>2</v>
       </c>
-      <c r="S325" t="inlineStr"/>
+      <c r="S325" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T325" t="n">
         <v>2018</v>
       </c>
@@ -18781,7 +19877,11 @@
       <c r="R326" t="n">
         <v>2</v>
       </c>
-      <c r="S326" t="inlineStr"/>
+      <c r="S326" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T326" t="n">
         <v>2018</v>
       </c>
@@ -18841,7 +19941,11 @@
       <c r="R327" t="n">
         <v>2</v>
       </c>
-      <c r="S327" t="inlineStr"/>
+      <c r="S327" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T327" t="n">
         <v>2021</v>
       </c>
@@ -18901,7 +20005,11 @@
       <c r="R328" t="n">
         <v>2</v>
       </c>
-      <c r="S328" t="inlineStr"/>
+      <c r="S328" t="inlineStr">
+        <is>
+          <t>IEEE Computer Society</t>
+        </is>
+      </c>
       <c r="T328" t="n">
         <v>2018</v>
       </c>
@@ -18957,7 +20065,11 @@
       <c r="R329" t="n">
         <v>2</v>
       </c>
-      <c r="S329" t="inlineStr"/>
+      <c r="S329" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T329" t="n">
         <v>2018</v>
       </c>
@@ -19017,7 +20129,11 @@
       <c r="R330" t="n">
         <v>2</v>
       </c>
-      <c r="S330" t="inlineStr"/>
+      <c r="S330" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T330" t="n">
         <v>2018</v>
       </c>
@@ -19077,7 +20193,11 @@
       <c r="R331" t="n">
         <v>2</v>
       </c>
-      <c r="S331" t="inlineStr"/>
+      <c r="S331" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery Inc</t>
+        </is>
+      </c>
       <c r="T331" t="n">
         <v>2017</v>
       </c>
@@ -19133,7 +20253,11 @@
       <c r="R332" t="n">
         <v>2</v>
       </c>
-      <c r="S332" t="inlineStr"/>
+      <c r="S332" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="T332" t="n">
         <v>2017</v>
       </c>
@@ -19189,7 +20313,11 @@
       <c r="R333" t="n">
         <v>2</v>
       </c>
-      <c r="S333" t="inlineStr"/>
+      <c r="S333" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
+        </is>
+      </c>
       <c r="T333" t="n">
         <v>2021</v>
       </c>
@@ -19249,7 +20377,11 @@
       <c r="R334" t="n">
         <v>2</v>
       </c>
-      <c r="S334" t="inlineStr"/>
+      <c r="S334" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T334" t="n">
         <v>2020</v>
       </c>
@@ -19305,7 +20437,11 @@
       <c r="R335" t="n">
         <v>2</v>
       </c>
-      <c r="S335" t="inlineStr"/>
+      <c r="S335" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T335" t="n">
         <v>2021</v>
       </c>
@@ -19365,7 +20501,11 @@
       <c r="R336" t="n">
         <v>2</v>
       </c>
-      <c r="S336" t="inlineStr"/>
+      <c r="S336" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T336" t="n">
         <v>2016</v>
       </c>
@@ -19425,7 +20565,11 @@
       <c r="R337" t="n">
         <v>2</v>
       </c>
-      <c r="S337" t="inlineStr"/>
+      <c r="S337" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T337" t="n">
         <v>2021</v>
       </c>
@@ -19485,7 +20629,11 @@
       <c r="R338" t="n">
         <v>2</v>
       </c>
-      <c r="S338" t="inlineStr"/>
+      <c r="S338" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T338" t="n">
         <v>2019</v>
       </c>
@@ -19545,7 +20693,11 @@
       <c r="R339" t="n">
         <v>2</v>
       </c>
-      <c r="S339" t="inlineStr"/>
+      <c r="S339" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T339" t="n">
         <v>2021</v>
       </c>
@@ -19605,7 +20757,11 @@
       <c r="R340" t="n">
         <v>2</v>
       </c>
-      <c r="S340" t="inlineStr"/>
+      <c r="S340" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T340" t="n">
         <v>2020</v>
       </c>
@@ -19661,7 +20817,11 @@
       <c r="R341" t="n">
         <v>2</v>
       </c>
-      <c r="S341" t="inlineStr"/>
+      <c r="S341" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T341" t="n">
         <v>2021</v>
       </c>
@@ -19721,7 +20881,11 @@
       <c r="R342" t="n">
         <v>2</v>
       </c>
-      <c r="S342" t="inlineStr"/>
+      <c r="S342" t="inlineStr">
+        <is>
+          <t>IEEE Computer Society</t>
+        </is>
+      </c>
       <c r="T342" t="n">
         <v>2021</v>
       </c>
@@ -19781,7 +20945,11 @@
       <c r="R343" t="n">
         <v>2</v>
       </c>
-      <c r="S343" t="inlineStr"/>
+      <c r="S343" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T343" t="n">
         <v>2021</v>
       </c>
@@ -20011,7 +21179,11 @@
       <c r="R348" t="n">
         <v>2</v>
       </c>
-      <c r="S348" t="inlineStr"/>
+      <c r="S348" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T348" t="n">
         <v>2020</v>
       </c>
@@ -20071,7 +21243,11 @@
       <c r="R349" t="n">
         <v>2</v>
       </c>
-      <c r="S349" t="inlineStr"/>
+      <c r="S349" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
+        </is>
+      </c>
       <c r="T349" t="n">
         <v>2020</v>
       </c>
@@ -20187,7 +21363,11 @@
       <c r="R351" t="n">
         <v>2</v>
       </c>
-      <c r="S351" t="inlineStr"/>
+      <c r="S351" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T351" t="n">
         <v>2020</v>
       </c>
@@ -20243,7 +21423,11 @@
       <c r="R352" t="n">
         <v>2</v>
       </c>
-      <c r="S352" t="inlineStr"/>
+      <c r="S352" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T352" t="n">
         <v>2020</v>
       </c>
@@ -20299,7 +21483,11 @@
       <c r="R353" t="n">
         <v>2</v>
       </c>
-      <c r="S353" t="inlineStr"/>
+      <c r="S353" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T353" t="n">
         <v>2021</v>
       </c>
@@ -20359,7 +21547,11 @@
       <c r="R354" t="n">
         <v>2</v>
       </c>
-      <c r="S354" t="inlineStr"/>
+      <c r="S354" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T354" t="n">
         <v>2021</v>
       </c>
@@ -20415,7 +21607,11 @@
       <c r="R355" t="n">
         <v>2</v>
       </c>
-      <c r="S355" t="inlineStr"/>
+      <c r="S355" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T355" t="n">
         <v>2021</v>
       </c>
@@ -20475,7 +21671,11 @@
       <c r="R356" t="n">
         <v>2</v>
       </c>
-      <c r="S356" t="inlineStr"/>
+      <c r="S356" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T356" t="n">
         <v>2020</v>
       </c>
@@ -20533,7 +21733,11 @@
       <c r="R357" t="n">
         <v>2</v>
       </c>
-      <c r="S357" t="inlineStr"/>
+      <c r="S357" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
+        </is>
+      </c>
       <c r="T357" t="n">
         <v>2021</v>
       </c>
@@ -20593,7 +21797,11 @@
       <c r="R358" t="n">
         <v>2</v>
       </c>
-      <c r="S358" t="inlineStr"/>
+      <c r="S358" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T358" t="n">
         <v>2021</v>
       </c>
@@ -20649,7 +21857,11 @@
       <c r="R359" t="n">
         <v>2</v>
       </c>
-      <c r="S359" t="inlineStr"/>
+      <c r="S359" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T359" t="n">
         <v>2020</v>
       </c>
@@ -20709,7 +21921,11 @@
       <c r="R360" t="n">
         <v>2</v>
       </c>
-      <c r="S360" t="inlineStr"/>
+      <c r="S360" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T360" t="n">
         <v>2021</v>
       </c>
@@ -20825,7 +22041,11 @@
       <c r="R362" t="n">
         <v>2</v>
       </c>
-      <c r="S362" t="inlineStr"/>
+      <c r="S362" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T362" t="n">
         <v>2021</v>
       </c>
@@ -20885,7 +22105,11 @@
       <c r="R363" t="n">
         <v>2</v>
       </c>
-      <c r="S363" t="inlineStr"/>
+      <c r="S363" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T363" t="n">
         <v>2021</v>
       </c>
@@ -20941,7 +22165,11 @@
       <c r="R364" t="n">
         <v>2</v>
       </c>
-      <c r="S364" t="inlineStr"/>
+      <c r="S364" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T364" t="n">
         <v>2021</v>
       </c>
@@ -21001,7 +22229,11 @@
       <c r="R365" t="n">
         <v>2</v>
       </c>
-      <c r="S365" t="inlineStr"/>
+      <c r="S365" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T365" t="n">
         <v>2021</v>
       </c>
@@ -21057,7 +22289,11 @@
       <c r="R366" t="n">
         <v>2</v>
       </c>
-      <c r="S366" t="inlineStr"/>
+      <c r="S366" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T366" t="n">
         <v>2021</v>
       </c>
@@ -21199,7 +22435,11 @@
       <c r="R369" t="n">
         <v>2</v>
       </c>
-      <c r="S369" t="inlineStr"/>
+      <c r="S369" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
+        </is>
+      </c>
       <c r="T369" t="n">
         <v>2021</v>
       </c>
@@ -21259,7 +22499,11 @@
       <c r="R370" t="n">
         <v>2</v>
       </c>
-      <c r="S370" t="inlineStr"/>
+      <c r="S370" t="inlineStr">
+        <is>
+          <t>IEEE Computer Society</t>
+        </is>
+      </c>
       <c r="T370" t="n">
         <v>2020</v>
       </c>
@@ -21361,7 +22605,11 @@
       <c r="R372" t="n">
         <v>2</v>
       </c>
-      <c r="S372" t="inlineStr"/>
+      <c r="S372" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T372" t="n">
         <v>2020</v>
       </c>
@@ -21417,7 +22665,11 @@
       <c r="R373" t="n">
         <v>2</v>
       </c>
-      <c r="S373" t="inlineStr"/>
+      <c r="S373" t="inlineStr">
+        <is>
+          <t>IEEE Computer Society</t>
+        </is>
+      </c>
       <c r="T373" t="n">
         <v>2021</v>
       </c>
@@ -21461,7 +22713,11 @@
       <c r="R374" t="n">
         <v>2</v>
       </c>
-      <c r="S374" t="inlineStr"/>
+      <c r="S374" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
       <c r="T374" t="n">
         <v>2020</v>
       </c>
@@ -21521,7 +22777,11 @@
       <c r="R375" t="n">
         <v>2</v>
       </c>
-      <c r="S375" t="inlineStr"/>
+      <c r="S375" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T375" t="n">
         <v>2021</v>
       </c>
@@ -21577,7 +22837,11 @@
       <c r="R376" t="n">
         <v>2</v>
       </c>
-      <c r="S376" t="inlineStr"/>
+      <c r="S376" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T376" t="n">
         <v>2021</v>
       </c>
@@ -21637,7 +22901,11 @@
       <c r="R377" t="n">
         <v>2</v>
       </c>
-      <c r="S377" t="inlineStr"/>
+      <c r="S377" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T377" t="n">
         <v>2021</v>
       </c>
@@ -21697,7 +22965,11 @@
       <c r="R378" t="n">
         <v>2</v>
       </c>
-      <c r="S378" t="inlineStr"/>
+      <c r="S378" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T378" t="n">
         <v>2019</v>
       </c>
@@ -21757,7 +23029,11 @@
       <c r="R379" t="n">
         <v>2</v>
       </c>
-      <c r="S379" t="inlineStr"/>
+      <c r="S379" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T379" t="n">
         <v>2021</v>
       </c>
@@ -21817,7 +23093,11 @@
       <c r="R380" t="n">
         <v>2</v>
       </c>
-      <c r="S380" t="inlineStr"/>
+      <c r="S380" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T380" t="n">
         <v>2020</v>
       </c>
@@ -21873,7 +23153,11 @@
       <c r="R381" t="n">
         <v>2</v>
       </c>
-      <c r="S381" t="inlineStr"/>
+      <c r="S381" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T381" t="n">
         <v>2021</v>
       </c>
@@ -21975,7 +23259,11 @@
       <c r="R383" t="n">
         <v>2</v>
       </c>
-      <c r="S383" t="inlineStr"/>
+      <c r="S383" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T383" t="n">
         <v>2018</v>
       </c>
@@ -22031,7 +23319,11 @@
       <c r="R384" t="n">
         <v>2</v>
       </c>
-      <c r="S384" t="inlineStr"/>
+      <c r="S384" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T384" t="n">
         <v>2020</v>
       </c>
@@ -22091,7 +23383,11 @@
       <c r="R385" t="n">
         <v>2</v>
       </c>
-      <c r="S385" t="inlineStr"/>
+      <c r="S385" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T385" t="n">
         <v>2021</v>
       </c>
@@ -22195,7 +23491,11 @@
       <c r="R387" t="n">
         <v>2</v>
       </c>
-      <c r="S387" t="inlineStr"/>
+      <c r="S387" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T387" t="n">
         <v>2020</v>
       </c>
@@ -22255,7 +23555,11 @@
       <c r="R388" t="n">
         <v>2</v>
       </c>
-      <c r="S388" t="inlineStr"/>
+      <c r="S388" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T388" t="n">
         <v>2020</v>
       </c>
@@ -22315,7 +23619,11 @@
       <c r="R389" t="n">
         <v>2</v>
       </c>
-      <c r="S389" t="inlineStr"/>
+      <c r="S389" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T389" t="n">
         <v>2021</v>
       </c>
@@ -22365,7 +23673,11 @@
       <c r="R390" t="n">
         <v>2</v>
       </c>
-      <c r="S390" t="inlineStr"/>
+      <c r="S390" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers</t>
+        </is>
+      </c>
       <c r="T390" t="n">
         <v>1990</v>
       </c>
@@ -22467,7 +23779,11 @@
       <c r="R392" t="n">
         <v>2</v>
       </c>
-      <c r="S392" t="inlineStr"/>
+      <c r="S392" t="inlineStr">
+        <is>
+          <t>IEEE Computer Society</t>
+        </is>
+      </c>
       <c r="T392" t="n">
         <v>2021</v>
       </c>
@@ -22527,7 +23843,11 @@
       <c r="R393" t="n">
         <v>2</v>
       </c>
-      <c r="S393" t="inlineStr"/>
+      <c r="S393" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T393" t="n">
         <v>2020</v>
       </c>
@@ -22627,7 +23947,11 @@
       <c r="R395" t="n">
         <v>2</v>
       </c>
-      <c r="S395" t="inlineStr"/>
+      <c r="S395" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T395" t="n">
         <v>2020</v>
       </c>
@@ -22731,7 +24055,11 @@
       <c r="R397" t="n">
         <v>2</v>
       </c>
-      <c r="S397" t="inlineStr"/>
+      <c r="S397" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T397" t="n">
         <v>2018</v>
       </c>
@@ -22791,7 +24119,11 @@
       <c r="R398" t="n">
         <v>2</v>
       </c>
-      <c r="S398" t="inlineStr"/>
+      <c r="S398" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T398" t="n">
         <v>2021</v>
       </c>
@@ -22847,7 +24179,11 @@
       <c r="R399" t="n">
         <v>2</v>
       </c>
-      <c r="S399" t="inlineStr"/>
+      <c r="S399" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T399" t="n">
         <v>2020</v>
       </c>
@@ -22907,7 +24243,11 @@
       <c r="R400" t="n">
         <v>2</v>
       </c>
-      <c r="S400" t="inlineStr"/>
+      <c r="S400" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T400" t="n">
         <v>2021</v>
       </c>
@@ -22967,7 +24307,11 @@
       <c r="R401" t="n">
         <v>2</v>
       </c>
-      <c r="S401" t="inlineStr"/>
+      <c r="S401" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T401" t="n">
         <v>2021</v>
       </c>
@@ -23113,7 +24457,11 @@
       <c r="R404" t="n">
         <v>2</v>
       </c>
-      <c r="S404" t="inlineStr"/>
+      <c r="S404" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T404" t="n">
         <v>2020</v>
       </c>
@@ -23253,7 +24601,11 @@
       <c r="R407" t="n">
         <v>2</v>
       </c>
-      <c r="S407" t="inlineStr"/>
+      <c r="S407" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T407" t="n">
         <v>2021</v>
       </c>
@@ -23313,7 +24665,11 @@
       <c r="R408" t="n">
         <v>2</v>
       </c>
-      <c r="S408" t="inlineStr"/>
+      <c r="S408" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T408" t="n">
         <v>2020</v>
       </c>
@@ -23429,7 +24785,11 @@
       <c r="R410" t="n">
         <v>2</v>
       </c>
-      <c r="S410" t="inlineStr"/>
+      <c r="S410" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T410" t="n">
         <v>2021</v>
       </c>
@@ -23485,7 +24845,11 @@
       <c r="R411" t="n">
         <v>2</v>
       </c>
-      <c r="S411" t="inlineStr"/>
+      <c r="S411" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T411" t="n">
         <v>2020</v>
       </c>
@@ -23541,7 +24905,11 @@
       <c r="R412" t="n">
         <v>2</v>
       </c>
-      <c r="S412" t="inlineStr"/>
+      <c r="S412" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T412" t="n">
         <v>2021</v>
       </c>
@@ -23729,7 +25097,11 @@
       <c r="R416" t="n">
         <v>2</v>
       </c>
-      <c r="S416" t="inlineStr"/>
+      <c r="S416" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T416" t="n">
         <v>2019</v>
       </c>
@@ -23789,7 +25161,11 @@
       <c r="R417" t="n">
         <v>2</v>
       </c>
-      <c r="S417" t="inlineStr"/>
+      <c r="S417" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T417" t="n">
         <v>2021</v>
       </c>
@@ -23845,7 +25221,11 @@
       <c r="R418" t="n">
         <v>2</v>
       </c>
-      <c r="S418" t="inlineStr"/>
+      <c r="S418" t="inlineStr">
+        <is>
+          <t>IEEE Computer Society</t>
+        </is>
+      </c>
       <c r="T418" t="n">
         <v>2021</v>
       </c>
@@ -23905,7 +25285,11 @@
       <c r="R419" t="n">
         <v>2</v>
       </c>
-      <c r="S419" t="inlineStr"/>
+      <c r="S419" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T419" t="n">
         <v>2021</v>
       </c>
@@ -24007,7 +25391,11 @@
       <c r="R421" t="n">
         <v>2</v>
       </c>
-      <c r="S421" t="inlineStr"/>
+      <c r="S421" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T421" t="n">
         <v>2021</v>
       </c>
@@ -24067,7 +25455,11 @@
       <c r="R422" t="n">
         <v>2</v>
       </c>
-      <c r="S422" t="inlineStr"/>
+      <c r="S422" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T422" t="n">
         <v>2021</v>
       </c>
@@ -24169,7 +25561,11 @@
       <c r="R424" t="n">
         <v>2</v>
       </c>
-      <c r="S424" t="inlineStr"/>
+      <c r="S424" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T424" t="n">
         <v>2021</v>
       </c>
@@ -24229,7 +25625,11 @@
       <c r="R425" t="n">
         <v>2</v>
       </c>
-      <c r="S425" t="inlineStr"/>
+      <c r="S425" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
       <c r="T425" t="n">
         <v>2021</v>
       </c>
@@ -24289,7 +25689,11 @@
       <c r="R426" t="n">
         <v>2</v>
       </c>
-      <c r="S426" t="inlineStr"/>
+      <c r="S426" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T426" t="n">
         <v>2021</v>
       </c>
@@ -24349,7 +25753,11 @@
       <c r="R427" t="n">
         <v>2</v>
       </c>
-      <c r="S427" t="inlineStr"/>
+      <c r="S427" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T427" t="n">
         <v>2021</v>
       </c>
@@ -24405,7 +25813,11 @@
       <c r="R428" t="n">
         <v>2</v>
       </c>
-      <c r="S428" t="inlineStr"/>
+      <c r="S428" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T428" t="n">
         <v>2020</v>
       </c>
@@ -24465,7 +25877,11 @@
       <c r="R429" t="n">
         <v>2</v>
       </c>
-      <c r="S429" t="inlineStr"/>
+      <c r="S429" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T429" t="n">
         <v>2011</v>
       </c>
@@ -24523,7 +25939,11 @@
       <c r="R430" t="n">
         <v>2</v>
       </c>
-      <c r="S430" t="inlineStr"/>
+      <c r="S430" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
       <c r="T430" t="n">
         <v>2021</v>
       </c>
@@ -24625,7 +26045,11 @@
       <c r="R432" t="n">
         <v>2</v>
       </c>
-      <c r="S432" t="inlineStr"/>
+      <c r="S432" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T432" t="n">
         <v>2021</v>
       </c>
@@ -24685,7 +26109,11 @@
       <c r="R433" t="n">
         <v>2</v>
       </c>
-      <c r="S433" t="inlineStr"/>
+      <c r="S433" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T433" t="n">
         <v>2015</v>
       </c>
@@ -24741,7 +26169,11 @@
       <c r="R434" t="n">
         <v>2</v>
       </c>
-      <c r="S434" t="inlineStr"/>
+      <c r="S434" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T434" t="n">
         <v>2020</v>
       </c>
@@ -24917,7 +26349,11 @@
       <c r="R437" t="n">
         <v>2</v>
       </c>
-      <c r="S437" t="inlineStr"/>
+      <c r="S437" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T437" t="n">
         <v>2019</v>
       </c>
@@ -25017,7 +26453,11 @@
       <c r="R439" t="n">
         <v>2</v>
       </c>
-      <c r="S439" t="inlineStr"/>
+      <c r="S439" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers (IEEE)</t>
+        </is>
+      </c>
       <c r="T439" t="n">
         <v>2021</v>
       </c>
@@ -25115,7 +26555,11 @@
       <c r="R441" t="n">
         <v>2</v>
       </c>
-      <c r="S441" t="inlineStr"/>
+      <c r="S441" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T441" t="n">
         <v>2021</v>
       </c>
@@ -25175,7 +26619,11 @@
       <c r="R442" t="n">
         <v>2</v>
       </c>
-      <c r="S442" t="inlineStr"/>
+      <c r="S442" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T442" t="n">
         <v>2021</v>
       </c>
@@ -25235,7 +26683,11 @@
       <c r="R443" t="n">
         <v>2</v>
       </c>
-      <c r="S443" t="inlineStr"/>
+      <c r="S443" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T443" t="n">
         <v>2019</v>
       </c>
@@ -25339,7 +26791,11 @@
       <c r="R445" t="n">
         <v>2</v>
       </c>
-      <c r="S445" t="inlineStr"/>
+      <c r="S445" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T445" t="n">
         <v>2021</v>
       </c>
@@ -25399,7 +26855,11 @@
       <c r="R446" t="n">
         <v>2</v>
       </c>
-      <c r="S446" t="inlineStr"/>
+      <c r="S446" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T446" t="n">
         <v>2020</v>
       </c>
@@ -25459,7 +26919,11 @@
       <c r="R447" t="n">
         <v>2</v>
       </c>
-      <c r="S447" t="inlineStr"/>
+      <c r="S447" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
       <c r="T447" t="n">
         <v>1995</v>
       </c>
@@ -25519,7 +26983,11 @@
       <c r="R448" t="n">
         <v>2</v>
       </c>
-      <c r="S448" t="inlineStr"/>
+      <c r="S448" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T448" t="n">
         <v>2020</v>
       </c>
@@ -25579,7 +27047,11 @@
       <c r="R449" t="n">
         <v>2</v>
       </c>
-      <c r="S449" t="inlineStr"/>
+      <c r="S449" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T449" t="n">
         <v>2021</v>
       </c>
@@ -25719,7 +27191,11 @@
       <c r="R452" t="n">
         <v>2</v>
       </c>
-      <c r="S452" t="inlineStr"/>
+      <c r="S452" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T452" t="n">
         <v>2020</v>
       </c>
@@ -25823,7 +27299,11 @@
       <c r="R454" t="n">
         <v>2</v>
       </c>
-      <c r="S454" t="inlineStr"/>
+      <c r="S454" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+        </is>
+      </c>
       <c r="T454" t="n">
         <v>2019</v>
       </c>
@@ -25879,7 +27359,11 @@
       <c r="R455" t="n">
         <v>2</v>
       </c>
-      <c r="S455" t="inlineStr"/>
+      <c r="S455" t="inlineStr">
+        <is>
+          <t>Elsevier B.V.</t>
+        </is>
+      </c>
       <c r="T455" t="n">
         <v>2020</v>
       </c>

--- a/Datasets/DTCPS/DTCPS_pre-extract.xlsx
+++ b/Datasets/DTCPS/DTCPS_pre-extract.xlsx
@@ -28030,7 +28030,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Integration of ROS and Tecnomatix for the development of digital twins based decision-making systems for smart factories; Integration of ROS and Tecnomatix for the development of digital twins based decision-making systems for smart factories</t>
+          <t>Integration of ROS and Tecnomatix for the development of digital twins based decision-making systems for smart factories</t>
         </is>
       </c>
       <c r="E367" t="inlineStr"/>
@@ -30604,7 +30604,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Examination of the Effectiveness of Mode Orthogonalisation and Filtering for Scattering Suppression in Antenna Measurements Through Computational Electromagnetic Simulation; Examination of the Effectiveness of Mode Orthogonalisation and Filtering for Scattering Suppression in Antenna Measurements Through Computational Electromagnetic Simulation</t>
+          <t>Examination of the Effectiveness of Mode Orthogonalisation and Filtering for Scattering Suppression in Antenna Measurements Through Computational Electromagnetic Simulation</t>
         </is>
       </c>
       <c r="E402" t="inlineStr"/>
